--- a/crypto_market_cap_history.xlsx
+++ b/crypto_market_cap_history.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J366"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,31 +448,31 @@
         <v>45277</v>
       </c>
       <c r="B2">
-        <v>825747211475.3832</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>267401843617.0704</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>90854983802.11975</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24674549913.83398</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>115529533715.9537</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>327574129858.0646</v>
+        <v>59973833.8261967</v>
       </c>
       <c r="H2">
-        <v>1420723184950.518</v>
+        <v>59973833.8261967</v>
       </c>
       <c r="I2">
-        <v>58.12161160051335</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.82153022134172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -495,16 +495,16 @@
         <v>115476950517.9256</v>
       </c>
       <c r="G3">
-        <v>319620587828.6765</v>
+        <v>319005302779.3925</v>
       </c>
       <c r="H3">
-        <v>1394588491975.607</v>
+        <v>1393973206926.323</v>
       </c>
       <c r="I3">
-        <v>58.11994118368828</v>
+        <v>58.14559471181773</v>
       </c>
       <c r="J3">
-        <v>18.96142800387083</v>
+        <v>18.96979737790606</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -527,16 +527,16 @@
         <v>115645800435.0539</v>
       </c>
       <c r="G4">
-        <v>324269477660.588</v>
+        <v>323659250417.8494</v>
       </c>
       <c r="H4">
-        <v>1425347887805.182</v>
+        <v>1424737660562.444</v>
       </c>
       <c r="I4">
-        <v>58.56520421338946</v>
+        <v>58.59028818784792</v>
       </c>
       <c r="J4">
-        <v>18.68459701514338</v>
+        <v>18.69259978676502</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -559,16 +559,16 @@
         <v>115714119634.852</v>
       </c>
       <c r="G5">
-        <v>327422324744.0322</v>
+        <v>326851686918.0945</v>
       </c>
       <c r="H5">
-        <v>1416528151581.938</v>
+        <v>1415957513756</v>
       </c>
       <c r="I5">
-        <v>58.41630080054486</v>
+        <v>58.43984285640762</v>
       </c>
       <c r="J5">
-        <v>18.46927507887721</v>
+        <v>18.47671828735999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -591,16 +591,16 @@
         <v>115854678211.6741</v>
       </c>
       <c r="G6">
-        <v>340959116605.8807</v>
+        <v>340344860374.3201</v>
       </c>
       <c r="H6">
-        <v>1459252905262.316</v>
+        <v>1458638649030.755</v>
       </c>
       <c r="I6">
-        <v>58.53501138010561</v>
+        <v>58.55966141630792</v>
       </c>
       <c r="J6">
-        <v>18.09966823051407</v>
+        <v>18.10729029236411</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -623,16 +623,16 @@
         <v>115845336930.5366</v>
       </c>
       <c r="G7">
-        <v>357515363201.3008</v>
+        <v>356817370079.4276</v>
       </c>
       <c r="H7">
-        <v>1484489434139.246</v>
+        <v>1483791441017.373</v>
       </c>
       <c r="I7">
-        <v>57.81867625838806</v>
+        <v>57.84587485060834</v>
       </c>
       <c r="J7">
-        <v>18.09793486868276</v>
+        <v>18.10644835225548</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -655,16 +655,16 @@
         <v>116257215516.6901</v>
       </c>
       <c r="G8">
-        <v>362926087292.1511</v>
+        <v>362262630019.9357</v>
       </c>
       <c r="H8">
-        <v>1504619404885.568</v>
+        <v>1503955947613.353</v>
       </c>
       <c r="I8">
-        <v>57.27845017830071</v>
+        <v>57.30371807552358</v>
       </c>
       <c r="J8">
-        <v>18.60075979907207</v>
+        <v>18.60896536478495</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -687,16 +687,16 @@
         <v>116355168313.6988</v>
       </c>
       <c r="G9">
-        <v>368868794955.5418</v>
+        <v>368192874144.7691</v>
       </c>
       <c r="H9">
-        <v>1503798386882.776</v>
+        <v>1503122466072.003</v>
       </c>
       <c r="I9">
-        <v>56.97906851743751</v>
+        <v>57.00469073988359</v>
       </c>
       <c r="J9">
-        <v>18.49179259179867</v>
+        <v>18.50010794049674</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -719,16 +719,16 @@
         <v>116411349443.0956</v>
       </c>
       <c r="G10">
-        <v>367456609812.9008</v>
+        <v>366748584016.095</v>
       </c>
       <c r="H10">
-        <v>1485008291925.26</v>
+        <v>1484300266128.455</v>
       </c>
       <c r="I10">
-        <v>56.90399395244403</v>
+        <v>56.93113771612784</v>
       </c>
       <c r="J10">
-        <v>18.35159136576949</v>
+        <v>18.36034525498982</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -751,16 +751,16 @@
         <v>116397256578.982</v>
       </c>
       <c r="G11">
-        <v>380137158851.9704</v>
+        <v>379443205650.6891</v>
       </c>
       <c r="H11">
-        <v>1508127426792.161</v>
+        <v>1507433473590.88</v>
       </c>
       <c r="I11">
-        <v>56.66130009256464</v>
+        <v>56.68738435517183</v>
       </c>
       <c r="J11">
-        <v>18.1327954129766</v>
+        <v>18.14114291994488</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -783,16 +783,16 @@
         <v>116129410968.9108</v>
       </c>
       <c r="G12">
-        <v>374031220284.1021</v>
+        <v>373346066137.0179</v>
       </c>
       <c r="H12">
-        <v>1474592214284.137</v>
+        <v>1473907060137.053</v>
       </c>
       <c r="I12">
-        <v>56.45436022702859</v>
+        <v>56.48060336004333</v>
       </c>
       <c r="J12">
-        <v>18.18057839119265</v>
+        <v>18.18902973729039</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -815,16 +815,16 @@
         <v>116313844131.8444</v>
       </c>
       <c r="G13">
-        <v>382452303006.8876</v>
+        <v>381769866690.0663</v>
       </c>
       <c r="H13">
-        <v>1517175768056.241</v>
+        <v>1516493331739.42</v>
       </c>
       <c r="I13">
-        <v>55.97203575268311</v>
+        <v>55.9972236972158</v>
       </c>
       <c r="J13">
-        <v>18.81979054329882</v>
+        <v>18.82825962672498</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -847,16 +847,16 @@
         <v>116406284688.5603</v>
       </c>
       <c r="G14">
-        <v>377246063247.6393</v>
+        <v>376603859402.9459</v>
       </c>
       <c r="H14">
-        <v>1496079413519.887</v>
+        <v>1495437209675.194</v>
       </c>
       <c r="I14">
-        <v>55.88429673199893</v>
+        <v>55.90829580731086</v>
       </c>
       <c r="J14">
-        <v>18.90005897542459</v>
+        <v>18.90817545832365</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -879,16 +879,16 @@
         <v>116345373223.2021</v>
       </c>
       <c r="G15">
-        <v>372746917445.3351</v>
+        <v>372110017888.0718</v>
       </c>
       <c r="H15">
-        <v>1471677675169.475</v>
+        <v>1471040775612.211</v>
       </c>
       <c r="I15">
-        <v>55.91808422151777</v>
+        <v>55.94229442946994</v>
       </c>
       <c r="J15">
-        <v>18.75388887867819</v>
+        <v>18.76200853363394</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -911,16 +911,16 @@
         <v>116356462337.8366</v>
       </c>
       <c r="G16">
-        <v>373146980803.8166</v>
+        <v>372509363429.2244</v>
       </c>
       <c r="H16">
-        <v>1475468534607.489</v>
+        <v>1474830917232.896</v>
       </c>
       <c r="I16">
-        <v>56.02350285839274</v>
+        <v>56.04772364085034</v>
       </c>
       <c r="J16">
-        <v>18.68643015260956</v>
+        <v>18.69450890414317</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -943,16 +943,16 @@
         <v>116217970083.4203</v>
       </c>
       <c r="G17">
-        <v>370763472439.3149</v>
+        <v>370132081707.5305</v>
       </c>
       <c r="H17">
-        <v>1472652018598.729</v>
+        <v>1472020627866.945</v>
       </c>
       <c r="I17">
-        <v>56.1976777744601</v>
+        <v>56.22178252694989</v>
       </c>
       <c r="J17">
-        <v>18.62573822899554</v>
+        <v>18.63372732797133</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -975,16 +975,16 @@
         <v>116294541311.9176</v>
       </c>
       <c r="G18">
-        <v>386380516232.5381</v>
+        <v>385712707698.6443</v>
       </c>
       <c r="H18">
-        <v>1532286964913.848</v>
+        <v>1531619156379.954</v>
       </c>
       <c r="I18">
-        <v>56.37357378096469</v>
+        <v>56.39815349028747</v>
       </c>
       <c r="J18">
-        <v>18.41048918636192</v>
+        <v>18.41851643108565</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1007,16 +1007,16 @@
         <v>116509833030.8819</v>
       </c>
       <c r="G19">
-        <v>381150078338.2827</v>
+        <v>380504137209.9072</v>
       </c>
       <c r="H19">
-        <v>1542308329242.083</v>
+        <v>1541662388113.707</v>
       </c>
       <c r="I19">
-        <v>56.95326856106</v>
+        <v>56.9771314112162</v>
       </c>
       <c r="J19">
-        <v>18.33376898443607</v>
+        <v>18.34145065035495</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1039,16 +1039,16 @@
         <v>117138996304.9087</v>
       </c>
       <c r="G20">
-        <v>359663087596.0165</v>
+        <v>359094631204.2986</v>
       </c>
       <c r="H20">
-        <v>1463418769185.017</v>
+        <v>1462850312793.299</v>
       </c>
       <c r="I20">
-        <v>57.27741167150523</v>
+        <v>57.29966939020753</v>
       </c>
       <c r="J20">
-        <v>18.14568012085205</v>
+        <v>18.15273144234171</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1071,16 +1071,16 @@
         <v>117655397145.0601</v>
       </c>
       <c r="G21">
-        <v>371280579849.9564</v>
+        <v>370682445676.5939</v>
       </c>
       <c r="H21">
-        <v>1510742868474.181</v>
+        <v>1510144734300.819</v>
       </c>
       <c r="I21">
-        <v>57.34615587574228</v>
+        <v>57.36886939105056</v>
       </c>
       <c r="J21">
-        <v>18.07781682022405</v>
+        <v>18.08497703458918</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1103,16 +1103,16 @@
         <v>118257287761.7709</v>
       </c>
       <c r="G22">
-        <v>360209098367.8811</v>
+        <v>359621321043.4435</v>
       </c>
       <c r="H22">
-        <v>1495836327347.128</v>
+        <v>1495248550022.69</v>
       </c>
       <c r="I22">
-        <v>57.73966277405389</v>
+        <v>57.76236004702483</v>
       </c>
       <c r="J22">
-        <v>18.17955433663673</v>
+        <v>18.18670066010737</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1135,16 +1135,16 @@
         <v>118864539655.6341</v>
       </c>
       <c r="G23">
-        <v>349176552945.5327</v>
+        <v>348615790791.5731</v>
       </c>
       <c r="H23">
-        <v>1479877353247.889</v>
+        <v>1479316591093.929</v>
       </c>
       <c r="I23">
-        <v>58.19476640684902</v>
+        <v>58.21682620307922</v>
       </c>
       <c r="J23">
-        <v>18.21026795770867</v>
+        <v>18.21717089460914</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1167,16 +1167,16 @@
         <v>119121390145.4638</v>
       </c>
       <c r="G24">
-        <v>337835375094.4217</v>
+        <v>337310790678.4444</v>
       </c>
       <c r="H24">
-        <v>1461001796615.728</v>
+        <v>1460477212199.75</v>
       </c>
       <c r="I24">
-        <v>58.65333766683135</v>
+        <v>58.67440518272825</v>
       </c>
       <c r="J24">
-        <v>18.22311957798618</v>
+        <v>18.2296650854828</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1199,16 +1199,16 @@
         <v>119443143716.8088</v>
       </c>
       <c r="G25">
-        <v>358942196587.5873</v>
+        <v>358374310021.4271</v>
       </c>
       <c r="H25">
-        <v>1558924526892.533</v>
+        <v>1558356640326.373</v>
       </c>
       <c r="I25">
-        <v>58.99366043952227</v>
+        <v>59.01515853975508</v>
       </c>
       <c r="J25">
-        <v>17.98135083295534</v>
+        <v>17.98790348420038</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1231,16 +1231,16 @@
         <v>119279872780.3495</v>
       </c>
       <c r="G26">
-        <v>352003763921.7858</v>
+        <v>351477230909.8625</v>
       </c>
       <c r="H26">
-        <v>1535314940029.6</v>
+        <v>1534788407017.677</v>
       </c>
       <c r="I26">
-        <v>58.76103291894843</v>
+        <v>58.78119180437202</v>
       </c>
       <c r="J26">
-        <v>18.31182980490421</v>
+        <v>18.31811196266414</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1263,16 +1263,16 @@
         <v>119796172873.662</v>
       </c>
       <c r="G27">
-        <v>374846866078.1007</v>
+        <v>374237700167.6718</v>
       </c>
       <c r="H27">
-        <v>1600928104379.291</v>
+        <v>1600318938468.862</v>
       </c>
       <c r="I27">
-        <v>57.17054634985615</v>
+        <v>57.19230847931658</v>
       </c>
       <c r="J27">
-        <v>19.41510636916862</v>
+        <v>19.42249678408101</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1295,16 +1295,16 @@
         <v>120348649129.737</v>
       </c>
       <c r="G28">
-        <v>379013518717.5235</v>
+        <v>378389844894.5261</v>
       </c>
       <c r="H28">
-        <v>1604106107002.413</v>
+        <v>1603482433179.416</v>
       </c>
       <c r="I28">
-        <v>56.71983795987408</v>
+        <v>56.74189911717037</v>
       </c>
       <c r="J28">
-        <v>19.6524533079533</v>
+        <v>19.66009712146334</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1327,16 +1327,16 @@
         <v>120392691781.5667</v>
       </c>
       <c r="G29">
-        <v>359423151403.2814</v>
+        <v>358824022850.0628</v>
       </c>
       <c r="H29">
-        <v>1499860265057.746</v>
+        <v>1499261136504.527</v>
       </c>
       <c r="I29">
-        <v>55.8974413622763</v>
+        <v>55.91977886730233</v>
       </c>
       <c r="J29">
-        <v>20.13878282628548</v>
+        <v>20.14683060363695</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1359,16 +1359,16 @@
         <v>120472966490.0004</v>
       </c>
       <c r="G30">
-        <v>366710619035.1505</v>
+        <v>366061214715.089</v>
       </c>
       <c r="H30">
-        <v>1515373840546.43</v>
+        <v>1514724436226.369</v>
       </c>
       <c r="I30">
-        <v>55.37899086435836</v>
+        <v>55.40273337160777</v>
       </c>
       <c r="J30">
-        <v>20.42165916514737</v>
+        <v>20.43041449606269</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1391,16 +1391,16 @@
         <v>120559989148.8297</v>
       </c>
       <c r="G31">
-        <v>360562427252.481</v>
+        <v>359899157879.61</v>
       </c>
       <c r="H31">
-        <v>1482070406660.55</v>
+        <v>1481407137287.679</v>
       </c>
       <c r="I31">
-        <v>55.5241547940748</v>
+        <v>55.54901458474441</v>
       </c>
       <c r="J31">
-        <v>20.14755245869249</v>
+        <v>20.15657310814652</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1423,16 +1423,16 @@
         <v>120750715156.1489</v>
       </c>
       <c r="G32">
-        <v>366555166024.5541</v>
+        <v>365902533341.6466</v>
       </c>
       <c r="H32">
-        <v>1504529084316.049</v>
+        <v>1503876451633.142</v>
       </c>
       <c r="I32">
-        <v>55.51411282059367</v>
+        <v>55.53820411103843</v>
       </c>
       <c r="J32">
-        <v>20.12243885223836</v>
+        <v>20.13117132573411</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1455,16 +1455,16 @@
         <v>120540840618.2521</v>
       </c>
       <c r="G33">
-        <v>369733395538.1876</v>
+        <v>369079524477.0123</v>
       </c>
       <c r="H33">
-        <v>1526698581353.483</v>
+        <v>1526044710292.308</v>
       </c>
       <c r="I33">
-        <v>55.39867929265816</v>
+        <v>55.42241620742382</v>
       </c>
       <c r="J33">
-        <v>20.38348229090713</v>
+        <v>20.39221609084504</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1487,16 +1487,16 @@
         <v>120822927884.5959</v>
       </c>
       <c r="G34">
-        <v>366826985469.4091</v>
+        <v>366190268020.1002</v>
       </c>
       <c r="H34">
-        <v>1507588179575.994</v>
+        <v>1506951462126.685</v>
       </c>
       <c r="I34">
-        <v>55.51834425619148</v>
+        <v>55.54180187870493</v>
       </c>
       <c r="J34">
-        <v>20.14961398074704</v>
+        <v>20.15812759989193</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1519,16 +1519,16 @@
         <v>120588195134.3806</v>
       </c>
       <c r="G35">
-        <v>353634534034.9514</v>
+        <v>353006569483.7368</v>
       </c>
       <c r="H35">
-        <v>1459039623848.392</v>
+        <v>1458411659297.178</v>
       </c>
       <c r="I35">
-        <v>55.43686448876917</v>
+        <v>55.46073455694061</v>
       </c>
       <c r="J35">
-        <v>20.32564886215698</v>
+        <v>20.33440070316463</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1551,16 +1551,16 @@
         <v>120491956421.1142</v>
       </c>
       <c r="G36">
-        <v>353918019512.7238</v>
+        <v>353259516752.5034</v>
       </c>
       <c r="H36">
-        <v>1468442315442.271</v>
+        <v>1467783812682.051</v>
       </c>
       <c r="I36">
-        <v>55.51743691544205</v>
+        <v>55.54234411576222</v>
       </c>
       <c r="J36">
-        <v>20.38096809571228</v>
+        <v>20.39011176089718</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1583,16 +1583,16 @@
         <v>120699546397.5898</v>
       </c>
       <c r="G37">
-        <v>356413422797.0411</v>
+        <v>355775856887.9612</v>
       </c>
       <c r="H37">
-        <v>1470491301392.266</v>
+        <v>1469853735483.186</v>
       </c>
       <c r="I37">
-        <v>55.57446151706107</v>
+        <v>55.59856757688416</v>
       </c>
       <c r="J37">
-        <v>20.18782810276955</v>
+        <v>20.1965848046549</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1615,16 +1615,16 @@
         <v>120694296518.1391</v>
       </c>
       <c r="G38">
-        <v>353729131249.197</v>
+        <v>353107923842.7562</v>
       </c>
       <c r="H38">
-        <v>1463664005043.927</v>
+        <v>1463042797637.487</v>
       </c>
       <c r="I38">
-        <v>55.66232149017234</v>
+        <v>55.68595569036471</v>
       </c>
       <c r="J38">
-        <v>20.17030607802555</v>
+        <v>20.17887038219087</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1647,16 +1647,16 @@
         <v>120385630214.831</v>
       </c>
       <c r="G39">
-        <v>334372053393.2318</v>
+        <v>333811617497.032</v>
       </c>
       <c r="H39">
-        <v>1387196718627.065</v>
+        <v>1386636282730.865</v>
       </c>
       <c r="I39">
-        <v>55.8695738459752</v>
+        <v>55.89215461576942</v>
       </c>
       <c r="J39">
-        <v>20.02627070848957</v>
+        <v>20.03436471346537</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1679,16 +1679,16 @@
         <v>121301470980.5869</v>
       </c>
       <c r="G40">
-        <v>331608701682.5131</v>
+        <v>331055155225.9648</v>
       </c>
       <c r="H40">
-        <v>1379939085300.605</v>
+        <v>1379385538844.057</v>
       </c>
       <c r="I40">
-        <v>56.46143118411901</v>
+        <v>56.4840891171504</v>
       </c>
       <c r="J40">
-        <v>19.50789201174689</v>
+        <v>19.51572051523176</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1711,16 +1711,16 @@
         <v>121365645346.9573</v>
       </c>
       <c r="G41">
-        <v>337362861601.9341</v>
+        <v>336793864180.6179</v>
       </c>
       <c r="H41">
-        <v>1393065331255.943</v>
+        <v>1392496333834.627</v>
       </c>
       <c r="I41">
-        <v>56.48901653935445</v>
+        <v>56.5120989015572</v>
       </c>
       <c r="J41">
-        <v>19.29367978991401</v>
+        <v>19.30156351196154</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1743,16 +1743,16 @@
         <v>121531325930.3701</v>
       </c>
       <c r="G42">
-        <v>333516887343.4856</v>
+        <v>332957257026.4696</v>
       </c>
       <c r="H42">
-        <v>1383529336622.048</v>
+        <v>1382969706305.032</v>
       </c>
       <c r="I42">
-        <v>56.60743983475898</v>
+        <v>56.63034651113502</v>
       </c>
       <c r="J42">
-        <v>19.28632125036678</v>
+        <v>19.29412562238318</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1775,16 +1775,16 @@
         <v>121652103809.3188</v>
       </c>
       <c r="G43">
-        <v>346478097056.9476</v>
+        <v>345894017341.7563</v>
       </c>
       <c r="H43">
-        <v>1439895848593.513</v>
+        <v>1439311768878.322</v>
       </c>
       <c r="I43">
-        <v>57.01730876021519</v>
+        <v>57.04044666138554</v>
       </c>
       <c r="J43">
-        <v>18.91997188439626</v>
+        <v>18.92764970099488</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1807,16 +1807,16 @@
         <v>122171492433.036</v>
       </c>
       <c r="G44">
-        <v>349714816580.1885</v>
+        <v>349129314190.3286</v>
       </c>
       <c r="H44">
-        <v>1448508041442.807</v>
+        <v>1447922539052.947</v>
       </c>
       <c r="I44">
-        <v>57.04176411083187</v>
+        <v>57.0648303234972</v>
       </c>
       <c r="J44">
-        <v>18.81513094431397</v>
+        <v>18.82273929616726</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1839,16 +1839,16 @@
         <v>122163048476.7239</v>
       </c>
       <c r="G45">
-        <v>349430698523.192</v>
+        <v>348856798287.0987</v>
       </c>
       <c r="H45">
-        <v>1445028938398.001</v>
+        <v>1444455038161.908</v>
       </c>
       <c r="I45">
-        <v>57.03969444218187</v>
+        <v>57.06235703343061</v>
       </c>
       <c r="J45">
-        <v>18.7787345706945</v>
+        <v>18.78619559919239</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1871,16 +1871,16 @@
         <v>122540307614.955</v>
       </c>
       <c r="G46">
-        <v>360902499151.391</v>
+        <v>360317468341.9009</v>
       </c>
       <c r="H46">
-        <v>1488435471629.485</v>
+        <v>1487850440819.995</v>
       </c>
       <c r="I46">
-        <v>57.053126749714</v>
+        <v>57.07556034653972</v>
       </c>
       <c r="J46">
-        <v>18.69976909089049</v>
+        <v>18.70712194084662</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1903,16 +1903,16 @@
         <v>122699312802.5556</v>
       </c>
       <c r="G47">
-        <v>356594637762.4684</v>
+        <v>356022162349.5089</v>
       </c>
       <c r="H47">
-        <v>1477021196928.624</v>
+        <v>1476448721515.664</v>
       </c>
       <c r="I47">
-        <v>56.82343040559152</v>
+        <v>56.84546301418346</v>
       </c>
       <c r="J47">
-        <v>19.03374493461448</v>
+        <v>19.0411250425944</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1935,16 +1935,16 @@
         <v>122961177499.5735</v>
       </c>
       <c r="G48">
-        <v>347419340122.4639</v>
+        <v>346867614974.1612</v>
       </c>
       <c r="H48">
-        <v>1457325330351.631</v>
+        <v>1456773605203.328</v>
       </c>
       <c r="I48">
-        <v>57.32566057361189</v>
+        <v>57.34737157144201</v>
       </c>
       <c r="J48">
-        <v>18.83482103699479</v>
+        <v>18.84195436532582</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1967,16 +1967,16 @@
         <v>123087098104.7857</v>
       </c>
       <c r="G49">
-        <v>351866136784.3546</v>
+        <v>351315184498.5147</v>
       </c>
       <c r="H49">
-        <v>1473045490746.795</v>
+        <v>1472494538460.955</v>
       </c>
       <c r="I49">
-        <v>57.33598864618066</v>
+        <v>57.35744162490514</v>
       </c>
       <c r="J49">
-        <v>18.77702761878426</v>
+        <v>18.78405327899395</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1999,16 +1999,16 @@
         <v>123236031060.897</v>
       </c>
       <c r="G50">
-        <v>357844324948.4888</v>
+        <v>357285896912.1877</v>
       </c>
       <c r="H50">
-        <v>1481686462435.377</v>
+        <v>1481128034399.076</v>
       </c>
       <c r="I50">
-        <v>57.13502917553674</v>
+        <v>57.15657073130064</v>
       </c>
       <c r="J50">
-        <v>18.71382049537697</v>
+        <v>18.72087614606227</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2031,16 +2031,16 @@
         <v>123272290437.5623</v>
       </c>
       <c r="G51">
-        <v>355271746002.3311</v>
+        <v>354714285688.4338</v>
       </c>
       <c r="H51">
-        <v>1473599509412.589</v>
+        <v>1473042049098.692</v>
       </c>
       <c r="I51">
-        <v>57.18436533211848</v>
+        <v>57.20600627187819</v>
       </c>
       <c r="J51">
-        <v>18.70652335690189</v>
+        <v>18.71360268256597</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2063,16 +2063,16 @@
         <v>123248890310.1046</v>
       </c>
       <c r="G52">
-        <v>351722148425.1474</v>
+        <v>351170003188.22</v>
       </c>
       <c r="H52">
-        <v>1462174899299.165</v>
+        <v>1461622754062.238</v>
       </c>
       <c r="I52">
-        <v>57.13518660179797</v>
+        <v>57.15677009251434</v>
       </c>
       <c r="J52">
-        <v>18.81008857740724</v>
+        <v>18.81719431025475</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2095,16 +2095,16 @@
         <v>123166398401.1904</v>
       </c>
       <c r="G53">
-        <v>352598052706.9537</v>
+        <v>352056066656.9471</v>
       </c>
       <c r="H53">
-        <v>1465464339158.396</v>
+        <v>1464922353108.39</v>
       </c>
       <c r="I53">
-        <v>57.08981365406419</v>
+        <v>57.1109355125247</v>
       </c>
       <c r="J53">
-        <v>18.84968597856094</v>
+        <v>18.85665990917624</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2127,16 +2127,16 @@
         <v>123429594870.3476</v>
       </c>
       <c r="G54">
-        <v>354368407979.1719</v>
+        <v>353853214973.3987</v>
       </c>
       <c r="H54">
-        <v>1484897358197.139</v>
+        <v>1484382165191.365</v>
       </c>
       <c r="I54">
-        <v>56.93280300209042</v>
+        <v>56.95256299557025</v>
       </c>
       <c r="J54">
-        <v>19.20235502597544</v>
+        <v>19.20901969713341</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2159,16 +2159,16 @@
         <v>123737977581.9672</v>
       </c>
       <c r="G55">
-        <v>363368700169.5258</v>
+        <v>362819882436.3304</v>
       </c>
       <c r="H55">
-        <v>1523617849447.754</v>
+        <v>1523069031714.559</v>
       </c>
       <c r="I55">
-        <v>57.01377483813449</v>
+        <v>57.03431899602624</v>
       </c>
       <c r="J55">
-        <v>19.13715432686373</v>
+        <v>19.14405014671088</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2191,16 +2191,16 @@
         <v>123998433554.2909</v>
       </c>
       <c r="G56">
-        <v>368504227342.8226</v>
+        <v>367956667058.038</v>
       </c>
       <c r="H56">
-        <v>1550235008438.346</v>
+        <v>1549687448153.561</v>
       </c>
       <c r="I56">
-        <v>57.44085004927392</v>
+        <v>57.46114596652402</v>
       </c>
       <c r="J56">
-        <v>18.78828776938229</v>
+        <v>18.79492634686698</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2223,16 +2223,16 @@
         <v>124199238854.0152</v>
       </c>
       <c r="G57">
-        <v>380263696748.1296</v>
+        <v>379691000949.4585</v>
       </c>
       <c r="H57">
-        <v>1605001165451.502</v>
+        <v>1604428469652.831</v>
       </c>
       <c r="I57">
-        <v>57.66612179862508</v>
+        <v>57.68670554312001</v>
       </c>
       <c r="J57">
-        <v>18.64145324035267</v>
+        <v>18.64810724964869</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2255,16 +2255,16 @@
         <v>124311504758.9389</v>
       </c>
       <c r="G58">
-        <v>383217269087.6394</v>
+        <v>382650317929.2443</v>
       </c>
       <c r="H58">
-        <v>1621814843819.119</v>
+        <v>1621247892660.724</v>
       </c>
       <c r="I58">
-        <v>57.84943802685291</v>
+        <v>57.8696680028179</v>
       </c>
       <c r="J58">
-        <v>18.52164585191942</v>
+        <v>18.52812288027435</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2287,16 +2287,16 @@
         <v>124452038163.0092</v>
       </c>
       <c r="G59">
-        <v>382590403208.8167</v>
+        <v>382025250796.0663</v>
       </c>
       <c r="H59">
-        <v>1629090642610.089</v>
+        <v>1628525490197.339</v>
       </c>
       <c r="I59">
-        <v>58.04340292901231</v>
+        <v>58.06354591689124</v>
       </c>
       <c r="J59">
-        <v>18.47169124672737</v>
+        <v>18.478101536857</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2319,16 +2319,16 @@
         <v>124509469770.828</v>
       </c>
       <c r="G60">
-        <v>395184294023.0981</v>
+        <v>394596634525.9589</v>
       </c>
       <c r="H60">
-        <v>1695602307157.278</v>
+        <v>1695014647660.139</v>
       </c>
       <c r="I60">
-        <v>57.88287776503518</v>
+        <v>57.90294568768548</v>
       </c>
       <c r="J60">
-        <v>18.81069640887385</v>
+        <v>18.81721805422231</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2351,16 +2351,16 @@
         <v>124652595086.9852</v>
       </c>
       <c r="G61">
-        <v>392732539103.3181</v>
+        <v>392108069957.9316</v>
       </c>
       <c r="H61">
-        <v>1684520025633.415</v>
+        <v>1683895556488.028</v>
       </c>
       <c r="I61">
-        <v>57.85537087964646</v>
+        <v>57.87682642293714</v>
       </c>
       <c r="J61">
-        <v>18.830418952051</v>
+        <v>18.837402173537</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2383,16 +2383,16 @@
         <v>124950887871.0571</v>
       </c>
       <c r="G62">
-        <v>408203075869.2014</v>
+        <v>407557665969.5093</v>
       </c>
       <c r="H62">
-        <v>1760317603328.332</v>
+        <v>1759672193428.64</v>
       </c>
       <c r="I62">
-        <v>57.80755556870893</v>
+        <v>57.82875813631237</v>
       </c>
       <c r="J62">
-        <v>19.00327248315007</v>
+        <v>19.01024247462518</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2415,16 +2415,16 @@
         <v>125370249460.6408</v>
       </c>
       <c r="G63">
-        <v>415590089091.3879</v>
+        <v>414815057817.9813</v>
       </c>
       <c r="H63">
-        <v>1776102595252.504</v>
+        <v>1775327563979.098</v>
       </c>
       <c r="I63">
-        <v>57.4699803022594</v>
+        <v>57.49506921143879</v>
       </c>
       <c r="J63">
-        <v>19.13102854698985</v>
+        <v>19.13938032708789</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2447,16 +2447,16 @@
         <v>125684516121.8824</v>
       </c>
       <c r="G64">
-        <v>413865472593.0449</v>
+        <v>413103515517.674</v>
       </c>
       <c r="H64">
-        <v>1775358581494.192</v>
+        <v>1774596624418.821</v>
       </c>
       <c r="I64">
-        <v>57.67957477489626</v>
+        <v>57.70434060590222</v>
       </c>
       <c r="J64">
-        <v>19.00876993996556</v>
+        <v>19.01693171969091</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2479,16 +2479,16 @@
         <v>125826967437.5767</v>
       </c>
       <c r="G65">
-        <v>412030772880.5219</v>
+        <v>411206151198.3244</v>
       </c>
       <c r="H65">
-        <v>1762998579376.134</v>
+        <v>1762173957693.936</v>
       </c>
       <c r="I65">
-        <v>57.6165117942622</v>
+        <v>57.64347384569345</v>
       </c>
       <c r="J65">
-        <v>19.01246694114177</v>
+        <v>19.02136395860323</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2511,16 +2511,16 @@
         <v>125763813436.816</v>
       </c>
       <c r="G66">
-        <v>418817754791.2968</v>
+        <v>418027408376.4807</v>
       </c>
       <c r="H66">
-        <v>1787746167413.451</v>
+        <v>1786955820998.635</v>
       </c>
       <c r="I66">
-        <v>57.2556740810791</v>
+        <v>57.28099749210364</v>
       </c>
       <c r="J66">
-        <v>19.31718830702765</v>
+        <v>19.32573203840779</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2543,16 +2543,16 @@
         <v>125706513895.7899</v>
       </c>
       <c r="G67">
-        <v>424300143571.6693</v>
+        <v>423336857544.1562</v>
       </c>
       <c r="H67">
-        <v>1794246138426.103</v>
+        <v>1793282852398.59</v>
       </c>
       <c r="I67">
-        <v>56.63361458662085</v>
+        <v>56.6640360951664</v>
       </c>
       <c r="J67">
-        <v>19.71856282735081</v>
+        <v>19.72915491884871</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2575,16 +2575,16 @@
         <v>125924031946.7685</v>
       </c>
       <c r="G68">
-        <v>421843672591.7206</v>
+        <v>420896763974.8423</v>
       </c>
       <c r="H68">
-        <v>1810527518788.698</v>
+        <v>1809580610171.82</v>
       </c>
       <c r="I68">
-        <v>56.69200300100722</v>
+        <v>56.72166851899961</v>
       </c>
       <c r="J68">
-        <v>20.00850730805742</v>
+        <v>20.01897726329146</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2607,16 +2607,16 @@
         <v>126255909586.4639</v>
       </c>
       <c r="G69">
-        <v>416892802235.5701</v>
+        <v>415995395722.1744</v>
       </c>
       <c r="H69">
-        <v>1794159602915.022</v>
+        <v>1793262196401.626</v>
       </c>
       <c r="I69">
-        <v>56.78814078195354</v>
+        <v>56.81655940780961</v>
       </c>
       <c r="J69">
-        <v>19.97575460626986</v>
+        <v>19.98575112118532</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2639,16 +2639,16 @@
         <v>125815891521.1617</v>
       </c>
       <c r="G70">
-        <v>414613721717.7935</v>
+        <v>413723396395.0742</v>
       </c>
       <c r="H70">
-        <v>1779159482970.317</v>
+        <v>1778269157647.597</v>
       </c>
       <c r="I70">
-        <v>56.61743125960216</v>
+        <v>56.64577788673729</v>
       </c>
       <c r="J70">
-        <v>20.07865890621066</v>
+        <v>20.08871168050164</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2671,16 +2671,16 @@
         <v>126088880557.9706</v>
       </c>
       <c r="G71">
-        <v>413558047967.1884</v>
+        <v>412704355577.6225</v>
       </c>
       <c r="H71">
-        <v>1764621338952.679</v>
+        <v>1763767646563.113</v>
       </c>
       <c r="I71">
-        <v>56.62061783910137</v>
+        <v>56.64802314423662</v>
       </c>
       <c r="J71">
-        <v>19.94330333547541</v>
+        <v>19.95295622048749</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2703,16 +2703,16 @@
         <v>125967762948.4114</v>
       </c>
       <c r="G72">
-        <v>422856745587.5552</v>
+        <v>421959467099.4609</v>
       </c>
       <c r="H72">
-        <v>1794301519893.38</v>
+        <v>1793404241405.286</v>
       </c>
       <c r="I72">
-        <v>56.42785818965118</v>
+        <v>56.45609025362975</v>
       </c>
       <c r="J72">
-        <v>20.00549256553951</v>
+        <v>20.01550174122247</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2735,16 +2735,16 @@
         <v>126090976736.6395</v>
       </c>
       <c r="G73">
-        <v>426936596942.3292</v>
+        <v>425911932653.6429</v>
       </c>
       <c r="H73">
-        <v>1817582956836.514</v>
+        <v>1816558292547.828</v>
       </c>
       <c r="I73">
-        <v>55.92864150688457</v>
+        <v>55.96018912190025</v>
       </c>
       <c r="J73">
-        <v>20.58210891930734</v>
+        <v>20.59371864968703</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2767,16 +2767,16 @@
         <v>126645917719.9207</v>
       </c>
       <c r="G74">
-        <v>442228664690.8864</v>
+        <v>441156408853.8593</v>
       </c>
       <c r="H74">
-        <v>1894543995697.118</v>
+        <v>1893471739860.091</v>
       </c>
       <c r="I74">
-        <v>56.5333852663972</v>
+        <v>56.56539960865682</v>
       </c>
       <c r="J74">
-        <v>20.12439276909447</v>
+        <v>20.13578902981441</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2799,16 +2799,16 @@
         <v>126906895682.8673</v>
       </c>
       <c r="G75">
-        <v>447791968256.8003</v>
+        <v>446533003293.4096</v>
       </c>
       <c r="H75">
-        <v>1956187802910.255</v>
+        <v>1954928837946.864</v>
       </c>
       <c r="I75">
-        <v>57.20124272590797</v>
+        <v>57.23808005679003</v>
       </c>
       <c r="J75">
-        <v>19.90770521914043</v>
+        <v>19.92052568753084</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2831,16 +2831,16 @@
         <v>127117488877.5376</v>
       </c>
       <c r="G76">
-        <v>466501134949.1384</v>
+        <v>464601577472.4446</v>
       </c>
       <c r="H76">
-        <v>2096724313615.591</v>
+        <v>2094824756138.897</v>
       </c>
       <c r="I76">
-        <v>58.43752758934894</v>
+        <v>58.49051791330159</v>
       </c>
       <c r="J76">
-        <v>19.31342746374033</v>
+        <v>19.33094060675232</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2863,16 +2863,16 @@
         <v>127558918817.0295</v>
       </c>
       <c r="G77">
-        <v>470258947270.1606</v>
+        <v>468488423256.6595</v>
       </c>
       <c r="H77">
-        <v>2080009314519.391</v>
+        <v>2078238790505.89</v>
       </c>
       <c r="I77">
-        <v>58.01538091433803</v>
+        <v>58.06480623809318</v>
       </c>
       <c r="J77">
-        <v>19.37611709542837</v>
+        <v>19.39262428447834</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2895,16 +2895,16 @@
         <v>128262686610.0509</v>
       </c>
       <c r="G78">
-        <v>492330636518.2651</v>
+        <v>490571954120.1843</v>
       </c>
       <c r="H78">
-        <v>2133046601080.051</v>
+        <v>2131287918681.97</v>
       </c>
       <c r="I78">
-        <v>57.55676544528087</v>
+        <v>57.6042597652138</v>
       </c>
       <c r="J78">
-        <v>19.36213373540381</v>
+        <v>19.3781108558535</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2927,16 +2927,16 @@
         <v>128260935982.5717</v>
       </c>
       <c r="G79">
-        <v>512523963796.6547</v>
+        <v>510741338464.4214</v>
       </c>
       <c r="H79">
-        <v>2143034452712.057</v>
+        <v>2141251827379.824</v>
       </c>
       <c r="I79">
-        <v>56.89984610095009</v>
+        <v>56.94721610468471</v>
       </c>
       <c r="J79">
-        <v>19.18434782565503</v>
+        <v>19.20031909254625</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2959,16 +2959,16 @@
         <v>128563632761.7505</v>
       </c>
       <c r="G80">
-        <v>513357317464.9513</v>
+        <v>511384060573.167</v>
       </c>
       <c r="H80">
-        <v>2167902959210.071</v>
+        <v>2165929702318.286</v>
       </c>
       <c r="I80">
-        <v>57.02802200721801</v>
+        <v>57.079977034812</v>
       </c>
       <c r="J80">
-        <v>19.29207501169994</v>
+        <v>19.30965093760969</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2991,16 +2991,16 @@
         <v>128513662372.9689</v>
       </c>
       <c r="G81">
-        <v>533943386841.5419</v>
+        <v>532064681936.6895</v>
       </c>
       <c r="H81">
-        <v>2304120975126.483</v>
+        <v>2302242270221.631</v>
       </c>
       <c r="I81">
-        <v>57.89250873105516</v>
+        <v>57.93975090948009</v>
       </c>
       <c r="J81">
-        <v>18.93408186008205</v>
+        <v>18.94953268944068</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3023,16 +3023,16 @@
         <v>129309442708.8305</v>
       </c>
       <c r="G82">
-        <v>509644680218.9965</v>
+        <v>507620566191.3066</v>
       </c>
       <c r="H82">
-        <v>2204606450771.926</v>
+        <v>2202582336744.236</v>
       </c>
       <c r="I82">
-        <v>57.37396993806823</v>
+        <v>57.4266950759387</v>
       </c>
       <c r="J82">
-        <v>19.5087666591803</v>
+        <v>19.52669469192578</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3055,16 +3055,16 @@
         <v>129702484796.1116</v>
       </c>
       <c r="G83">
-        <v>536585207088.5966</v>
+        <v>534226704870.8592</v>
       </c>
       <c r="H83">
-        <v>2292719224904.524</v>
+        <v>2290360722686.787</v>
       </c>
       <c r="I83">
-        <v>56.6072695540662</v>
+        <v>56.66556097054958</v>
       </c>
       <c r="J83">
-        <v>19.98885258509624</v>
+        <v>20.00943613452799</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3087,16 +3087,16 @@
         <v>130106801868.5777</v>
       </c>
       <c r="G84">
-        <v>556366234401.7922</v>
+        <v>553903124683.4033</v>
       </c>
       <c r="H84">
-        <v>2338077611186.964</v>
+        <v>2335614501468.575</v>
       </c>
       <c r="I84">
-        <v>56.35005460371465</v>
+        <v>56.40948066355409</v>
       </c>
       <c r="J84">
-        <v>19.85406147268267</v>
+        <v>19.87499931654864</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3119,16 +3119,16 @@
         <v>131213765057.0058</v>
       </c>
       <c r="G85">
-        <v>564787886646.2112</v>
+        <v>561998582185.6005</v>
       </c>
       <c r="H85">
-        <v>2373022351389.962</v>
+        <v>2370233046929.351</v>
       </c>
       <c r="I85">
-        <v>56.509008231594</v>
+        <v>56.57550837128671</v>
       </c>
       <c r="J85">
-        <v>19.6906307513513</v>
+        <v>19.71380280367676</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3151,16 +3151,16 @@
         <v>131824431578.855</v>
       </c>
       <c r="G86">
-        <v>573369865936.5431</v>
+        <v>570526677289.6566</v>
       </c>
       <c r="H86">
-        <v>2389696767864.833</v>
+        <v>2386853579217.946</v>
       </c>
       <c r="I86">
-        <v>56.32627880704529</v>
+        <v>56.39337393086016</v>
       </c>
       <c r="J86">
-        <v>19.68030605983541</v>
+        <v>19.70374898203382</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3183,16 +3183,16 @@
         <v>132479346337.9365</v>
       </c>
       <c r="G87">
-        <v>571894391324.2216</v>
+        <v>569201303070.8079</v>
       </c>
       <c r="H87">
-        <v>2395972132807.192</v>
+        <v>2393279044553.778</v>
       </c>
       <c r="I87">
-        <v>56.65301108661811</v>
+        <v>56.71676109480253</v>
       </c>
       <c r="J87">
-        <v>19.47799713783176</v>
+        <v>19.49991516925032</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3215,16 +3215,16 @@
         <v>132484248707.3178</v>
       </c>
       <c r="G88">
-        <v>600188750254.9403</v>
+        <v>597583266172.3634</v>
       </c>
       <c r="H88">
-        <v>2506892895782.135</v>
+        <v>2504287411699.558</v>
       </c>
       <c r="I88">
-        <v>56.55497255185351</v>
+        <v>56.61381287508719</v>
       </c>
       <c r="J88">
-        <v>19.50348805231661</v>
+        <v>19.52377966398931</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3247,16 +3247,16 @@
         <v>132815370641.9873</v>
       </c>
       <c r="G89">
-        <v>598910586508.2549</v>
+        <v>596434631457.7664</v>
       </c>
       <c r="H89">
-        <v>2479885531522.947</v>
+        <v>2477409576472.459</v>
       </c>
       <c r="I89">
-        <v>56.60313334209247</v>
+        <v>56.65970324284798</v>
       </c>
       <c r="J89">
-        <v>19.24613151730401</v>
+        <v>19.2653663491159</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3279,16 +3279,16 @@
         <v>133569219853.141</v>
       </c>
       <c r="G90">
-        <v>622881112304.0145</v>
+        <v>620413113453.6205</v>
       </c>
       <c r="H90">
-        <v>2540501811185.978</v>
+        <v>2538033812335.583</v>
       </c>
       <c r="I90">
-        <v>56.54911499161179</v>
+        <v>56.60410368014376</v>
       </c>
       <c r="J90">
-        <v>18.93285043894084</v>
+        <v>18.95126085289628</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3311,16 +3311,16 @@
         <v>133514815160.7451</v>
       </c>
       <c r="G91">
-        <v>623361270545.2498</v>
+        <v>620822980972.8705</v>
       </c>
       <c r="H91">
-        <v>2492722389536.844</v>
+        <v>2490184099964.465</v>
       </c>
       <c r="I91">
-        <v>56.31768278841827</v>
+        <v>56.37508841837329</v>
       </c>
       <c r="J91">
-        <v>18.67506918581691</v>
+        <v>18.694105020709</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3343,16 +3343,16 @@
         <v>134146364209.9542</v>
       </c>
       <c r="G92">
-        <v>610355848281.0876</v>
+        <v>608051497144.8025</v>
       </c>
       <c r="H92">
-        <v>2427246115501.574</v>
+        <v>2424941764365.289</v>
       </c>
       <c r="I92">
-        <v>56.34654140728757</v>
+        <v>56.40008587529323</v>
       </c>
       <c r="J92">
-        <v>18.50743634210265</v>
+        <v>18.52502341680743</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3375,16 +3375,16 @@
         <v>133791488753.2818</v>
       </c>
       <c r="G93">
-        <v>566926560718.7814</v>
+        <v>564814012874.1669</v>
       </c>
       <c r="H93">
-        <v>2271337551435.499</v>
+        <v>2269225003590.884</v>
       </c>
       <c r="I93">
-        <v>56.46031264938899</v>
+        <v>56.51287469660995</v>
       </c>
       <c r="J93">
-        <v>18.57965618481267</v>
+        <v>18.59695302076538</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3407,16 +3407,16 @@
         <v>134378981137.6358</v>
       </c>
       <c r="G94">
-        <v>600301781064.1305</v>
+        <v>597837813675.8641</v>
       </c>
       <c r="H94">
-        <v>2382208758020.352</v>
+        <v>2379744790632.085</v>
       </c>
       <c r="I94">
-        <v>56.4395953357657</v>
+        <v>56.49803240971654</v>
       </c>
       <c r="J94">
-        <v>18.36102702602136</v>
+        <v>18.38003787625425</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3439,16 +3439,16 @@
         <v>134347130117.3138</v>
       </c>
       <c r="G95">
-        <v>586174526627.2495</v>
+        <v>584011553703.9407</v>
       </c>
       <c r="H95">
-        <v>2341529261466.696</v>
+        <v>2339366288543.388</v>
       </c>
       <c r="I95">
-        <v>56.87615977576284</v>
+        <v>56.92874734795247</v>
       </c>
       <c r="J95">
-        <v>18.09000715310658</v>
+        <v>18.10673313391867</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3471,16 +3471,16 @@
         <v>135043903959.3886</v>
       </c>
       <c r="G96">
-        <v>534330871245.879</v>
+        <v>532295199240.7505</v>
       </c>
       <c r="H96">
-        <v>2139760149966.419</v>
+        <v>2137724477961.291</v>
       </c>
       <c r="I96">
-        <v>57.19647681454418</v>
+        <v>57.25094279827768</v>
       </c>
       <c r="J96">
-        <v>17.83199208865207</v>
+        <v>17.84897280224018</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3503,16 +3503,16 @@
         <v>135113567847.9873</v>
       </c>
       <c r="G97">
-        <v>586736328427.6809</v>
+        <v>584438117702.5393</v>
       </c>
       <c r="H97">
-        <v>2342030423981.274</v>
+        <v>2339732213256.133</v>
       </c>
       <c r="I97">
-        <v>56.8990969913282</v>
+        <v>56.95498634234687</v>
       </c>
       <c r="J97">
-        <v>18.04843902614703</v>
+        <v>18.06616717294389</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3535,16 +3535,16 @@
         <v>135819450032.3686</v>
       </c>
       <c r="G98">
-        <v>577315638811.3105</v>
+        <v>575022305912.2922</v>
       </c>
       <c r="H98">
-        <v>2283913901880.608</v>
+        <v>2281620568981.59</v>
       </c>
       <c r="I98">
-        <v>56.36587530341659</v>
+        <v>56.42253052382118</v>
       </c>
       <c r="J98">
-        <v>18.35665524662121</v>
+        <v>18.37510613278753</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3567,16 +3567,16 @@
         <v>136039022912.7778</v>
       </c>
       <c r="G99">
-        <v>563726829185.4917</v>
+        <v>561468182682.7102</v>
       </c>
       <c r="H99">
-        <v>2209098100052.287</v>
+        <v>2206839453549.505</v>
       </c>
       <c r="I99">
-        <v>56.46496040351282</v>
+        <v>56.52275091706376</v>
       </c>
       <c r="J99">
-        <v>18.0166242227132</v>
+        <v>18.03506379937887</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3599,16 +3599,16 @@
         <v>136004415356.5624</v>
       </c>
       <c r="G100">
-        <v>574345131719.9886</v>
+        <v>571975724757.4803</v>
       </c>
       <c r="H100">
-        <v>2241854754245.855</v>
+        <v>2239485347283.347</v>
       </c>
       <c r="I100">
-        <v>56.41410768807636</v>
+        <v>56.47379460663645</v>
       </c>
       <c r="J100">
-        <v>17.96669773064067</v>
+        <v>17.9857067492743</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3631,16 +3631,16 @@
         <v>136073618244.5873</v>
       </c>
       <c r="G101">
-        <v>597472214325.787</v>
+        <v>595011061304.9928</v>
       </c>
       <c r="H101">
-        <v>2336155934762.508</v>
+        <v>2333694781741.714</v>
       </c>
       <c r="I101">
-        <v>56.65103286232701</v>
+        <v>56.71077797627724</v>
       </c>
       <c r="J101">
-        <v>17.77395284024231</v>
+        <v>17.79269754416266</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3663,16 +3663,16 @@
         <v>135972273781.0214</v>
       </c>
       <c r="G102">
-        <v>613640912465.1385</v>
+        <v>610856972749.9791</v>
       </c>
       <c r="H102">
-        <v>2415272802288.855</v>
+        <v>2412488862573.696</v>
       </c>
       <c r="I102">
-        <v>56.79679282768162</v>
+        <v>56.86233462134528</v>
       </c>
       <c r="J102">
-        <v>17.7965155603557</v>
+        <v>17.81705220499209</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3695,16 +3695,16 @@
         <v>136418904149.4427</v>
       </c>
       <c r="G103">
-        <v>618110827126.9467</v>
+        <v>615415423881.749</v>
       </c>
       <c r="H103">
-        <v>2424478609766.559</v>
+        <v>2421783206521.361</v>
       </c>
       <c r="I103">
-        <v>56.74327564373583</v>
+        <v>56.80642993801841</v>
       </c>
       <c r="J103">
-        <v>17.76213658646482</v>
+        <v>17.78190554037774</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3727,16 +3727,16 @@
         <v>136462193521.1899</v>
       </c>
       <c r="G104">
-        <v>607761684140.4813</v>
+        <v>604963645461.5217</v>
       </c>
       <c r="H104">
-        <v>2387566200317.575</v>
+        <v>2384768161638.615</v>
       </c>
       <c r="I104">
-        <v>56.97273179705638</v>
+        <v>57.03957766902769</v>
       </c>
       <c r="J104">
-        <v>17.57198725368065</v>
+        <v>17.59260439407731</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3759,16 +3759,16 @@
         <v>136792828655.3327</v>
       </c>
       <c r="G105">
-        <v>623456056956.8397</v>
+        <v>620738363277.9371</v>
       </c>
       <c r="H105">
-        <v>2442048954374.103</v>
+        <v>2439331260695.2</v>
       </c>
       <c r="I105">
-        <v>56.95503035910776</v>
+        <v>57.0184847691269</v>
       </c>
       <c r="J105">
-        <v>17.51493037447501</v>
+        <v>17.53444400771217</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3791,16 +3791,16 @@
         <v>136986965969.471</v>
       </c>
       <c r="G106">
-        <v>628862973629.5292</v>
+        <v>626297809562.9899</v>
       </c>
       <c r="H106">
-        <v>2425691056809.165</v>
+        <v>2423125892742.625</v>
       </c>
       <c r="I106">
-        <v>56.67032008256222</v>
+        <v>56.73031228897231</v>
       </c>
       <c r="J106">
-        <v>17.40457408566889</v>
+        <v>17.42299887662659</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3823,16 +3823,16 @@
         <v>136999091943.5177</v>
       </c>
       <c r="G107">
-        <v>622183102102.3875</v>
+        <v>619709996465.6885</v>
       </c>
       <c r="H107">
-        <v>2413333884950.437</v>
+        <v>2410860779313.738</v>
       </c>
       <c r="I107">
-        <v>56.77819784924768</v>
+        <v>56.83644197613689</v>
       </c>
       <c r="J107">
-        <v>17.44074027687218</v>
+        <v>17.4586313112517</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3855,16 +3855,16 @@
         <v>136898552058.0068</v>
       </c>
       <c r="G108">
-        <v>641401805428.6031</v>
+        <v>638867471261.9531</v>
       </c>
       <c r="H108">
-        <v>2480481770318.864</v>
+        <v>2477947436152.214</v>
       </c>
       <c r="I108">
-        <v>56.49588835326216</v>
+        <v>56.55366982918856</v>
       </c>
       <c r="J108">
-        <v>17.6461588448452</v>
+        <v>17.66420654941639</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3887,16 +3887,16 @@
         <v>137093939011.5172</v>
       </c>
       <c r="G109">
-        <v>616198329911.3444</v>
+        <v>613822397097.9105</v>
       </c>
       <c r="H109">
-        <v>2411842637810.364</v>
+        <v>2409466704996.93</v>
       </c>
       <c r="I109">
-        <v>56.95994691049015</v>
+        <v>57.01611411406073</v>
       </c>
       <c r="J109">
-        <v>17.49119180597388</v>
+        <v>17.50843956311105</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3919,16 +3919,16 @@
         <v>137417376904.9539</v>
       </c>
       <c r="G110">
-        <v>578442210874.3251</v>
+        <v>576208791958.4658</v>
       </c>
       <c r="H110">
-        <v>2260584167727.838</v>
+        <v>2258350748811.979</v>
       </c>
       <c r="I110">
-        <v>56.99237192621349</v>
+        <v>57.04873511142139</v>
       </c>
       <c r="J110">
-        <v>17.41945404637439</v>
+        <v>17.43668119241961</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3951,16 +3951,16 @@
         <v>138208454826.3118</v>
       </c>
       <c r="G111">
-        <v>579051467101.4604</v>
+        <v>576856123257.897</v>
       </c>
       <c r="H111">
-        <v>2279137484296.189</v>
+        <v>2276942140452.626</v>
       </c>
       <c r="I111">
-        <v>57.11240522314035</v>
+        <v>57.16747090310217</v>
       </c>
       <c r="J111">
-        <v>17.48098937936759</v>
+        <v>17.49784390620496</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3983,16 +3983,16 @@
         <v>139275555756.9214</v>
       </c>
       <c r="G112">
-        <v>588574412956.7795</v>
+        <v>586393642187.0092</v>
       </c>
       <c r="H112">
-        <v>2336955454090.692</v>
+        <v>2334774683320.922</v>
       </c>
       <c r="I112">
-        <v>57.70139743498247</v>
+        <v>57.75529279447906</v>
       </c>
       <c r="J112">
-        <v>17.11308129517401</v>
+        <v>17.12906558168175</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4015,16 +4015,16 @@
         <v>139648668640.7133</v>
       </c>
       <c r="G113">
-        <v>580699599746.9207</v>
+        <v>578617575208.1931</v>
       </c>
       <c r="H113">
-        <v>2317623421443.832</v>
+        <v>2315541396905.104</v>
       </c>
       <c r="I113">
-        <v>57.70793354526881</v>
+        <v>57.75982177058022</v>
       </c>
       <c r="J113">
-        <v>17.23624442713204</v>
+        <v>17.25174243718738</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4047,16 +4047,16 @@
         <v>139731440895.4011</v>
       </c>
       <c r="G114">
-        <v>591643646932.1196</v>
+        <v>589436787254.7998</v>
       </c>
       <c r="H114">
-        <v>2353626583483.175</v>
+        <v>2351419723805.855</v>
       </c>
       <c r="I114">
-        <v>57.72151649919641</v>
+        <v>57.77568942544441</v>
       </c>
       <c r="J114">
-        <v>17.14095101863153</v>
+        <v>17.15703818216553</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4079,16 +4079,16 @@
         <v>139878577664.2965</v>
       </c>
       <c r="G115">
-        <v>599656957486.4526</v>
+        <v>597439829930.1464</v>
       </c>
       <c r="H115">
-        <v>2381825775416.506</v>
+        <v>2379608647860.2</v>
       </c>
       <c r="I115">
-        <v>57.40437638067728</v>
+        <v>57.45786115215036</v>
       </c>
       <c r="J115">
-        <v>17.41926673899669</v>
+        <v>17.4354966078587</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4111,16 +4111,16 @@
         <v>139639950876.4004</v>
       </c>
       <c r="G116">
-        <v>618296068177.415</v>
+        <v>615990887625</v>
       </c>
       <c r="H116">
-        <v>2472195690265.176</v>
+        <v>2469890509712.761</v>
       </c>
       <c r="I116">
-        <v>57.04745315357148</v>
+        <v>57.1006962746966</v>
       </c>
       <c r="J116">
-        <v>17.94254983801635</v>
+        <v>17.95929585035361</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4143,16 +4143,16 @@
         <v>139449117123.1393</v>
       </c>
       <c r="G117">
-        <v>595525732152.3984</v>
+        <v>593435926260.7349</v>
       </c>
       <c r="H117">
-        <v>2378606443564.651</v>
+        <v>2376516637672.987</v>
       </c>
       <c r="I117">
-        <v>57.25329856030259</v>
+        <v>57.30364463352245</v>
       </c>
       <c r="J117">
-        <v>17.70995213786984</v>
+        <v>17.72552550341339</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4175,16 +4175,16 @@
         <v>139347920893.1817</v>
       </c>
       <c r="G118">
-        <v>600364020808.5106</v>
+        <v>598323554021.3358</v>
       </c>
       <c r="H118">
-        <v>2413187252436.567</v>
+        <v>2411146785649.393</v>
       </c>
       <c r="I118">
-        <v>57.50579382466864</v>
+        <v>57.55445890929465</v>
       </c>
       <c r="J118">
-        <v>17.61573807459322</v>
+        <v>17.63064564002504</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4207,16 +4207,16 @@
         <v>139547831011.733</v>
       </c>
       <c r="G119">
-        <v>595831049096.0914</v>
+        <v>593810034942.802</v>
       </c>
       <c r="H119">
-        <v>2396339423222.481</v>
+        <v>2394318409069.191</v>
       </c>
       <c r="I119">
-        <v>57.55962790389469</v>
+        <v>57.60821326422572</v>
       </c>
       <c r="J119">
-        <v>17.57615447643078</v>
+        <v>17.59099028808504</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4239,16 +4239,16 @@
         <v>139348072156.3296</v>
       </c>
       <c r="G120">
-        <v>539538158045.457</v>
+        <v>537921764956.3834</v>
       </c>
       <c r="H120">
-        <v>2250528752922.734</v>
+        <v>2248912359833.661</v>
       </c>
       <c r="I120">
-        <v>58.72612139452795</v>
+        <v>58.76833046343859</v>
       </c>
       <c r="J120">
-        <v>17.30003879805945</v>
+        <v>17.3124731034834</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4271,16 +4271,16 @@
         <v>139460917502.179</v>
       </c>
       <c r="G121">
-        <v>493338616521.9307</v>
+        <v>491590326115.1774</v>
       </c>
       <c r="H121">
-        <v>2127024818297.777</v>
+        <v>2125276527891.024</v>
       </c>
       <c r="I121">
-        <v>59.7082602972963</v>
+        <v>59.75737737797346</v>
       </c>
       <c r="J121">
-        <v>17.09790518427333</v>
+        <v>17.11197022626526</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4303,16 +4303,16 @@
         <v>140021544228.7538</v>
       </c>
       <c r="G122">
-        <v>522155631702.7807</v>
+        <v>520279944019.967</v>
       </c>
       <c r="H122">
-        <v>2194861800944.119</v>
+        <v>2192986113261.305</v>
       </c>
       <c r="I122">
-        <v>58.92336301069571</v>
+        <v>58.97376087941032</v>
       </c>
       <c r="J122">
-        <v>17.28672768940324</v>
+        <v>17.30151323775081</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4335,16 +4335,16 @@
         <v>140254515722.9474</v>
       </c>
       <c r="G123">
-        <v>501203747671.5917</v>
+        <v>499513897249.2314</v>
       </c>
       <c r="H123">
-        <v>2121382340376.767</v>
+        <v>2119692489954.406</v>
       </c>
       <c r="I123">
-        <v>58.82621312947101</v>
+        <v>58.8731102626985</v>
       </c>
       <c r="J123">
-        <v>17.54750611330464</v>
+        <v>17.56149524651969</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4367,16 +4367,16 @@
         <v>140652639584.3984</v>
       </c>
       <c r="G124">
-        <v>496880683098.5577</v>
+        <v>495274592306.4073</v>
       </c>
       <c r="H124">
-        <v>2120785718788.115</v>
+        <v>2119179627995.965</v>
       </c>
       <c r="I124">
-        <v>59.11351124213904</v>
+        <v>59.15831238350687</v>
       </c>
       <c r="J124">
-        <v>17.45740402305374</v>
+        <v>17.4706346975496</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4399,16 +4399,16 @@
         <v>141241889700.1897</v>
       </c>
       <c r="G125">
-        <v>484243880550.2837</v>
+        <v>482641395678.9935</v>
       </c>
       <c r="H125">
-        <v>2049586821550.536</v>
+        <v>2047984336679.245</v>
       </c>
       <c r="I125">
-        <v>58.89894635305986</v>
+        <v>58.94503297041101</v>
       </c>
       <c r="J125">
-        <v>17.47463902235997</v>
+        <v>17.48831239093172</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4431,16 +4431,16 @@
         <v>142130426077.8386</v>
       </c>
       <c r="G126">
-        <v>501573113634.6588</v>
+        <v>499934752257.3323</v>
       </c>
       <c r="H126">
-        <v>2119533798816.483</v>
+        <v>2117895437439.157</v>
       </c>
       <c r="I126">
-        <v>58.95475281616523</v>
+        <v>59.0003590289727</v>
       </c>
       <c r="J126">
-        <v>17.38093412052199</v>
+        <v>17.39437966210139</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4463,16 +4463,16 @@
         <v>143733452071.3949</v>
       </c>
       <c r="G127">
-        <v>508467480249.6298</v>
+        <v>506646162096.8951</v>
       </c>
       <c r="H127">
-        <v>2140700582841.024</v>
+        <v>2138879264688.29</v>
       </c>
       <c r="I127">
-        <v>59.01377147461749</v>
+        <v>59.06402342432898</v>
       </c>
       <c r="J127">
-        <v>17.23384183827193</v>
+        <v>17.24851695785423</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4495,16 +4495,16 @@
         <v>143724000433.7985</v>
       </c>
       <c r="G128">
-        <v>534708834444.5416</v>
+        <v>532597799031.097</v>
       </c>
       <c r="H128">
-        <v>2191251147258.831</v>
+        <v>2189140111845.386</v>
       </c>
       <c r="I128">
-        <v>58.32014458764523</v>
+        <v>58.37638397126237</v>
       </c>
       <c r="J128">
-        <v>17.2778677573367</v>
+        <v>17.29452918092818</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4527,16 +4527,16 @@
         <v>143800242527.414</v>
       </c>
       <c r="G129">
-        <v>531747837807.0206</v>
+        <v>529599990805.5517</v>
       </c>
       <c r="H129">
-        <v>2189346675771.592</v>
+        <v>2187198828770.123</v>
       </c>
       <c r="I129">
-        <v>58.45413065778396</v>
+        <v>58.51153308851194</v>
       </c>
       <c r="J129">
-        <v>17.25790052980233</v>
+        <v>17.27484792819017</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4559,16 +4559,16 @@
         <v>143689591961.7272</v>
       </c>
       <c r="G130">
-        <v>550421333334.7885</v>
+        <v>548107518841.5072</v>
       </c>
       <c r="H130">
-        <v>2251946882905.243</v>
+        <v>2249633068411.961</v>
       </c>
       <c r="I130">
-        <v>58.48533341759574</v>
+        <v>58.54548732180624</v>
       </c>
       <c r="J130">
-        <v>17.07264543558712</v>
+        <v>17.09020515899366</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4591,16 +4591,16 @@
         <v>144068843982.3439</v>
       </c>
       <c r="G131">
-        <v>546854149858.3752</v>
+        <v>544656525148.0212</v>
       </c>
       <c r="H131">
-        <v>2246472666876.938</v>
+        <v>2244275042166.584</v>
       </c>
       <c r="I131">
-        <v>58.17312752328441</v>
+        <v>58.23009144264445</v>
       </c>
       <c r="J131">
-        <v>17.48408131252948</v>
+        <v>17.50120196325559</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4623,16 +4623,16 @@
         <v>143900521065.9486</v>
       </c>
       <c r="G132">
-        <v>529200579005.4061</v>
+        <v>527050566289.7221</v>
       </c>
       <c r="H132">
-        <v>2177810520783.676</v>
+        <v>2175660508067.992</v>
       </c>
       <c r="I132">
-        <v>58.11072018356895</v>
+        <v>58.16814586503393</v>
       </c>
       <c r="J132">
-        <v>17.58961857616046</v>
+        <v>17.60700083936858</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4655,16 +4655,16 @@
         <v>143790893290.3221</v>
       </c>
       <c r="G133">
-        <v>530120131999.5648</v>
+        <v>527777474253.7925</v>
       </c>
       <c r="H133">
-        <v>2184868088090.204</v>
+        <v>2182525430344.432</v>
       </c>
       <c r="I133">
-        <v>58.09904327804052</v>
+        <v>58.16140505942685</v>
       </c>
       <c r="J133">
-        <v>17.63770097259553</v>
+        <v>17.65663275511984</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4687,16 +4687,16 @@
         <v>143760977735.1535</v>
       </c>
       <c r="G134">
-        <v>518037153941.2045</v>
+        <v>516019318709.7723</v>
       </c>
       <c r="H134">
-        <v>2155408928641.467</v>
+        <v>2153391093410.034</v>
       </c>
       <c r="I134">
-        <v>58.25063268902871</v>
+        <v>58.30521644729392</v>
       </c>
       <c r="J134">
-        <v>17.715080960134</v>
+        <v>17.73168087763083</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4719,16 +4719,16 @@
         <v>143988167604.0849</v>
       </c>
       <c r="G135">
-        <v>521583339785.5886</v>
+        <v>519391298012.4781</v>
       </c>
       <c r="H135">
-        <v>2168241423596.22</v>
+        <v>2166049381823.109</v>
       </c>
       <c r="I135">
-        <v>57.6271299268461</v>
+        <v>57.68544857697668</v>
       </c>
       <c r="J135">
-        <v>18.31727671950896</v>
+        <v>18.33581380184685</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4751,16 +4751,16 @@
         <v>144131441832.1458</v>
       </c>
       <c r="G136">
-        <v>517919286734.6156</v>
+        <v>515578563282.736</v>
       </c>
       <c r="H136">
-        <v>2157281862542.374</v>
+        <v>2154941139090.494</v>
       </c>
       <c r="I136">
-        <v>57.51333531834724</v>
+        <v>57.57580700740333</v>
       </c>
       <c r="J136">
-        <v>18.47870838593517</v>
+        <v>18.49878018525014</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4783,16 +4783,16 @@
         <v>143820932715.297</v>
       </c>
       <c r="G137">
-        <v>515634992344.5659</v>
+        <v>513273065094.5077</v>
       </c>
       <c r="H137">
-        <v>2165144162335.238</v>
+        <v>2162782235085.18</v>
       </c>
       <c r="I137">
-        <v>58.06353004518363</v>
+        <v>58.12693995840723</v>
       </c>
       <c r="J137">
-        <v>18.12119698987797</v>
+        <v>18.14098675339633</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4815,16 +4815,16 @@
         <v>143776769559.1573</v>
       </c>
       <c r="G138">
-        <v>490035127246.474</v>
+        <v>488041350209.9015</v>
       </c>
       <c r="H138">
-        <v>2056595460203.295</v>
+        <v>2054601683166.722</v>
       </c>
       <c r="I138">
-        <v>58.24062063559532</v>
+        <v>58.29713709470774</v>
       </c>
       <c r="J138">
-        <v>17.93188695138369</v>
+        <v>17.94928798084795</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4847,16 +4847,16 @@
         <v>143642831012.2411</v>
       </c>
       <c r="G139">
-        <v>493314088664.2806</v>
+        <v>491425463065.3906</v>
       </c>
       <c r="H139">
-        <v>2009268551954.188</v>
+        <v>2007379926355.298</v>
       </c>
       <c r="I139">
-        <v>57.31824589575384</v>
+        <v>57.37217325901024</v>
       </c>
       <c r="J139">
-        <v>18.1298300628088</v>
+        <v>18.14688735261757</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4879,16 +4879,16 @@
         <v>143728408653.1667</v>
       </c>
       <c r="G140">
-        <v>499212827153.392</v>
+        <v>496968047233.4898</v>
       </c>
       <c r="H140">
-        <v>2022730994718.497</v>
+        <v>2020486214798.594</v>
       </c>
       <c r="I140">
-        <v>57.58162629832349</v>
+        <v>57.64560004757408</v>
       </c>
       <c r="J140">
-        <v>17.73823440204277</v>
+        <v>17.75794175372307</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -4911,16 +4911,16 @@
         <v>143931623074.5061</v>
       </c>
       <c r="G141">
-        <v>526201274978.8692</v>
+        <v>523932892539.6974</v>
       </c>
       <c r="H141">
-        <v>2139206048319.292</v>
+        <v>2136937665880.12</v>
       </c>
       <c r="I141">
-        <v>57.95687809170145</v>
+        <v>58.01839994448714</v>
       </c>
       <c r="J141">
-        <v>17.44515130176023</v>
+        <v>17.46366951850255</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -4943,16 +4943,16 @@
         <v>144341942082.1081</v>
       </c>
       <c r="G142">
-        <v>530911023469.9041</v>
+        <v>528568468221.0605</v>
       </c>
       <c r="H142">
-        <v>2162648855254.395</v>
+        <v>2160306300005.551</v>
       </c>
       <c r="I142">
-        <v>58.1485792308797</v>
+        <v>58.21163337254921</v>
       </c>
       <c r="J142">
-        <v>17.30231182894275</v>
+        <v>17.32107380792319</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -4975,16 +4975,16 @@
         <v>144415852549.9913</v>
       </c>
       <c r="G143">
-        <v>535047222949.3269</v>
+        <v>532399454533.0917</v>
       </c>
       <c r="H143">
-        <v>2171191685210.534</v>
+        <v>2168543916794.298</v>
       </c>
       <c r="I143">
-        <v>58.01732030579056</v>
+        <v>58.08815881964799</v>
       </c>
       <c r="J143">
-        <v>17.33965869362721</v>
+        <v>17.3608302273378</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5007,16 +5007,16 @@
         <v>144137737789.6399</v>
       </c>
       <c r="G144">
-        <v>533445109606.4117</v>
+        <v>530838490184.8494</v>
       </c>
       <c r="H144">
-        <v>2146176021149.51</v>
+        <v>2143569401727.948</v>
       </c>
       <c r="I144">
-        <v>57.98303289444254</v>
+        <v>58.05354131816883</v>
       </c>
       <c r="J144">
-        <v>17.16135860236051</v>
+        <v>17.18222712688658</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5039,16 +5039,16 @@
         <v>144204490608.8582</v>
       </c>
       <c r="G145">
-        <v>522898400166.0744</v>
+        <v>520405901290.2863</v>
       </c>
       <c r="H145">
-        <v>2114921714199.735</v>
+        <v>2112429215323.947</v>
       </c>
       <c r="I145">
-        <v>58.12681850800867</v>
+        <v>58.19540354211696</v>
       </c>
       <c r="J145">
-        <v>17.14893772186513</v>
+        <v>17.16917210779514</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5071,16 +5071,16 @@
         <v>144000040712.3309</v>
       </c>
       <c r="G146">
-        <v>514963135943.7549</v>
+        <v>512523324477.7277</v>
       </c>
       <c r="H146">
-        <v>2075919910118.425</v>
+        <v>2073480098652.398</v>
       </c>
       <c r="I146">
-        <v>57.99445906407153</v>
+        <v>58.06269967379936</v>
       </c>
       <c r="J146">
-        <v>17.19903787992292</v>
+        <v>17.21927555177293</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5103,16 +5103,16 @@
         <v>144071993491.9473</v>
       </c>
       <c r="G147">
-        <v>533229273281.129</v>
+        <v>530524493696.3743</v>
       </c>
       <c r="H147">
-        <v>2138566667159.778</v>
+        <v>2135861887575.024</v>
       </c>
       <c r="I147">
-        <v>58.02534521412306</v>
+        <v>58.09882644905051</v>
       </c>
       <c r="J147">
-        <v>17.04069871756748</v>
+        <v>17.06227845278789</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5135,16 +5135,16 @@
         <v>143878465417.5169</v>
       </c>
       <c r="G148">
-        <v>518587956732.3876</v>
+        <v>515859938067.2804</v>
       </c>
       <c r="H148">
-        <v>2067604614727.459</v>
+        <v>2064876596062.352</v>
       </c>
       <c r="I148">
-        <v>58.00885249805822</v>
+        <v>58.08549108878949</v>
       </c>
       <c r="J148">
-        <v>16.90956502536439</v>
+        <v>16.93190515411397</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5167,16 +5167,16 @@
         <v>143911281639.3347</v>
       </c>
       <c r="G149">
-        <v>517881546548.2847</v>
+        <v>515274439680.8992</v>
       </c>
       <c r="H149">
-        <v>2064375820542.199</v>
+        <v>2061768713674.813</v>
       </c>
       <c r="I149">
-        <v>57.98861484377493</v>
+        <v>58.06194145649665</v>
       </c>
       <c r="J149">
-        <v>16.92479281218833</v>
+        <v>16.9461942153996</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5199,16 +5199,16 @@
         <v>143916499845.0805</v>
       </c>
       <c r="G150">
-        <v>517260976948.6199</v>
+        <v>514515536867.1825</v>
       </c>
       <c r="H150">
-        <v>2080658509700.083</v>
+        <v>2077913069618.645</v>
       </c>
       <c r="I150">
-        <v>58.2160656254533</v>
+        <v>58.2929835303881</v>
       </c>
       <c r="J150">
-        <v>16.923488773448</v>
+        <v>16.94584891212546</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5231,16 +5231,16 @@
         <v>143988621449.2274</v>
       </c>
       <c r="G151">
-        <v>520510209057.6602</v>
+        <v>517928000473.2042</v>
       </c>
       <c r="H151">
-        <v>2113659933916.488</v>
+        <v>2111077725332.032</v>
       </c>
       <c r="I151">
-        <v>58.61842450773723</v>
+        <v>58.69012485166812</v>
       </c>
       <c r="J151">
-        <v>16.75556064922293</v>
+        <v>16.77605556138397</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5263,16 +5263,16 @@
         <v>143709653900.1549</v>
       </c>
       <c r="G152">
-        <v>505183568070.03</v>
+        <v>502619794687.9367</v>
       </c>
       <c r="H152">
-        <v>2064487877533.6</v>
+        <v>2061924104151.507</v>
       </c>
       <c r="I152">
-        <v>58.75541174023751</v>
+        <v>58.82846756240393</v>
       </c>
       <c r="J152">
-        <v>16.77442432382492</v>
+        <v>16.79528145551797</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5295,16 +5295,16 @@
         <v>144344491422.3229</v>
       </c>
       <c r="G153">
-        <v>538790283403.533</v>
+        <v>535906867416.3594</v>
       </c>
       <c r="H153">
-        <v>2211065036395.113</v>
+        <v>2208181620407.939</v>
       </c>
       <c r="I153">
-        <v>59.11399382929999</v>
+        <v>59.19118414430751</v>
       </c>
       <c r="J153">
-        <v>16.51809864492371</v>
+        <v>16.53966777187881</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5327,16 +5327,16 @@
         <v>144513499854.7335</v>
       </c>
       <c r="G154">
-        <v>531660527377.4299</v>
+        <v>528762006073.1349</v>
       </c>
       <c r="H154">
-        <v>2171440485800.361</v>
+        <v>2168541964496.066</v>
       </c>
       <c r="I154">
-        <v>59.23620417393022</v>
+        <v>59.31538059873305</v>
       </c>
       <c r="J154">
-        <v>16.27956377577402</v>
+        <v>16.30132340191973</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5359,16 +5359,16 @@
         <v>144669035226.2349</v>
       </c>
       <c r="G155">
-        <v>548019902172.3657</v>
+        <v>544900203673.4387</v>
       </c>
       <c r="H155">
-        <v>2238478966892.127</v>
+        <v>2235359268393.2</v>
       </c>
       <c r="I155">
-        <v>58.93458967460131</v>
+        <v>59.01683960799788</v>
       </c>
       <c r="J155">
-        <v>16.58361218131208</v>
+        <v>16.60675650122538</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5391,16 +5391,16 @@
         <v>144856036544.9639</v>
       </c>
       <c r="G156">
-        <v>549273882756.3071</v>
+        <v>546197928515.7462</v>
       </c>
       <c r="H156">
-        <v>2244408738079.646</v>
+        <v>2241332783839.085</v>
       </c>
       <c r="I156">
-        <v>58.80963215332145</v>
+        <v>58.89034115767463</v>
       </c>
       <c r="J156">
-        <v>16.71737977471645</v>
+        <v>16.74032232728155</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5423,16 +5423,16 @@
         <v>144909647973.2756</v>
       </c>
       <c r="G157">
-        <v>536933869554.4525</v>
+        <v>533793244949.2773</v>
       </c>
       <c r="H157">
-        <v>2210259068570.205</v>
+        <v>2207118443965.03</v>
       </c>
       <c r="I157">
-        <v>59.0305058420918</v>
+        <v>59.1145034452157</v>
       </c>
       <c r="J157">
-        <v>16.67669169010566</v>
+        <v>16.70042182946364</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5455,16 +5455,16 @@
         <v>144774882540.5137</v>
       </c>
       <c r="G158">
-        <v>583870288894.0607</v>
+        <v>580762395107.99</v>
       </c>
       <c r="H158">
-        <v>2429989666553.792</v>
+        <v>2426881772767.722</v>
       </c>
       <c r="I158">
-        <v>57.87220698106948</v>
+        <v>57.94631882058343</v>
       </c>
       <c r="J158">
-        <v>18.10010693736356</v>
+        <v>18.12328615050409</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5487,16 +5487,16 @@
         <v>144410193282.906</v>
       </c>
       <c r="G159">
-        <v>586323861969.0569</v>
+        <v>583417728637.7524</v>
       </c>
       <c r="H159">
-        <v>2424364858852.416</v>
+        <v>2421458725521.112</v>
       </c>
       <c r="I159">
-        <v>57.01598361939106</v>
+        <v>57.08441181462192</v>
       </c>
       <c r="J159">
-        <v>18.79937850202676</v>
+        <v>18.82194072862874</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5519,16 +5519,16 @@
         <v>144782582477.5037</v>
       </c>
       <c r="G160">
-        <v>579124840312.7469</v>
+        <v>576199387790.5283</v>
       </c>
       <c r="H160">
-        <v>2391047476584.056</v>
+        <v>2388122024061.838</v>
       </c>
       <c r="I160">
-        <v>56.97204437759166</v>
+        <v>57.04183520454315</v>
       </c>
       <c r="J160">
-        <v>18.80740601039867</v>
+        <v>18.83044510672421</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5551,16 +5551,16 @@
         <v>144568955802.8154</v>
       </c>
       <c r="G161">
-        <v>569783018204.5026</v>
+        <v>567083118648.2695</v>
       </c>
       <c r="H161">
-        <v>2358064440699.8</v>
+        <v>2355364541143.567</v>
       </c>
       <c r="I161">
-        <v>56.67136475328023</v>
+        <v>56.73632581976305</v>
       </c>
       <c r="J161">
-        <v>19.16546954309682</v>
+        <v>19.18743847478893</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5583,16 +5583,16 @@
         <v>144532847557.819</v>
       </c>
       <c r="G162">
-        <v>567219713320.6108</v>
+        <v>564555640635.4871</v>
       </c>
       <c r="H162">
-        <v>2365584386401.224</v>
+        <v>2362920313716.1</v>
       </c>
       <c r="I162">
-        <v>57.10066131233204</v>
+        <v>57.16503940888556</v>
       </c>
       <c r="J162">
-        <v>18.92134337364217</v>
+        <v>18.94267622763432</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5615,16 +5615,16 @@
         <v>144599298734.8665</v>
       </c>
       <c r="G163">
-        <v>573657517554.5588</v>
+        <v>571027603871.2939</v>
       </c>
       <c r="H163">
-        <v>2387693967431.408</v>
+        <v>2385064053748.144</v>
       </c>
       <c r="I163">
-        <v>57.1261589592302</v>
+        <v>57.189149664609</v>
       </c>
       <c r="J163">
-        <v>18.84825294701262</v>
+        <v>18.86903615333912</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5647,16 +5647,16 @@
         <v>144621009179.9512</v>
       </c>
       <c r="G164">
-        <v>567971596413.9088</v>
+        <v>565443997210.0098</v>
       </c>
       <c r="H164">
-        <v>2376827599730.12</v>
+        <v>2374300000526.221</v>
       </c>
       <c r="I164">
-        <v>56.77111458493606</v>
+        <v>56.83155118688087</v>
       </c>
       <c r="J164">
-        <v>19.33268038620952</v>
+        <v>19.35326130165516</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5679,16 +5679,16 @@
         <v>144444587126.4982</v>
       </c>
       <c r="G165">
-        <v>580510020667.5601</v>
+        <v>577880316629.337</v>
       </c>
       <c r="H165">
-        <v>2415055370603.636</v>
+        <v>2412425666565.413</v>
       </c>
       <c r="I165">
-        <v>56.60041264591704</v>
+        <v>56.66211085107334</v>
       </c>
       <c r="J165">
-        <v>19.36245645706078</v>
+        <v>19.38356281927568</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5711,16 +5711,16 @@
         <v>144154860190.6243</v>
       </c>
       <c r="G166">
-        <v>578151519953.3973</v>
+        <v>575659800282.4668</v>
       </c>
       <c r="H166">
-        <v>2387765003835.388</v>
+        <v>2385273284164.458</v>
       </c>
       <c r="I166">
-        <v>56.43531382961843</v>
+        <v>56.49426765370976</v>
       </c>
       <c r="J166">
-        <v>19.3516032654587</v>
+        <v>19.37181846295439</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5743,16 +5743,16 @@
         <v>144010870970.0216</v>
       </c>
       <c r="G167">
-        <v>564393808905.3118</v>
+        <v>561835040035.7954</v>
       </c>
       <c r="H167">
-        <v>2348890475555.062</v>
+        <v>2346331706685.546</v>
       </c>
       <c r="I167">
-        <v>56.69630166645525</v>
+        <v>56.75813125828469</v>
       </c>
       <c r="J167">
-        <v>19.2755959260904</v>
+        <v>19.29661673685494</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5775,16 +5775,16 @@
         <v>144286100345.0947</v>
       </c>
       <c r="G168">
-        <v>560017448445.4257</v>
+        <v>557138335577.8746</v>
       </c>
       <c r="H168">
-        <v>2356380904678.322</v>
+        <v>2353501791810.771</v>
       </c>
       <c r="I168">
-        <v>57.12776927352886</v>
+        <v>57.197655472971</v>
       </c>
       <c r="J168">
-        <v>19.10623231197136</v>
+        <v>19.12960556772635</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -5807,16 +5807,16 @@
         <v>144341366564.9623</v>
       </c>
       <c r="G169">
-        <v>559309556935.3391</v>
+        <v>556348402828.937</v>
       </c>
       <c r="H169">
-        <v>2343674688188.599</v>
+        <v>2340713534082.197</v>
       </c>
       <c r="I169">
-        <v>56.81703260839499</v>
+        <v>56.88890983171693</v>
       </c>
       <c r="J169">
-        <v>19.31832611890247</v>
+        <v>19.3427650516821</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -5839,16 +5839,16 @@
         <v>144389955658.3122</v>
       </c>
       <c r="G170">
-        <v>561291976531.7051</v>
+        <v>558472464773.1863</v>
       </c>
       <c r="H170">
-        <v>2352936623492.013</v>
+        <v>2350117111733.494</v>
       </c>
       <c r="I170">
-        <v>56.68021580437096</v>
+        <v>56.74821689850279</v>
       </c>
       <c r="J170">
-        <v>19.46482903331418</v>
+        <v>19.48818162032483</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -5871,16 +5871,16 @@
         <v>144525417603.2809</v>
       </c>
       <c r="G171">
-        <v>558139467437.8193</v>
+        <v>555295461043.5315</v>
       </c>
       <c r="H171">
-        <v>2348374903215.465</v>
+        <v>2345530896821.177</v>
       </c>
       <c r="I171">
-        <v>56.88744879961529</v>
+        <v>56.95642604837381</v>
       </c>
       <c r="J171">
-        <v>19.34549992277148</v>
+        <v>19.3689567553187</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -5903,16 +5903,16 @@
         <v>144481425743.4366</v>
       </c>
       <c r="G172">
-        <v>564119288857.8773</v>
+        <v>561309114247.9602</v>
       </c>
       <c r="H172">
-        <v>2371689083183.332</v>
+        <v>2368878908573.415</v>
       </c>
       <c r="I172">
-        <v>57.1527199630959</v>
+        <v>57.2205195969002</v>
       </c>
       <c r="J172">
-        <v>19.06173019996238</v>
+        <v>19.08434291774849</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -5935,16 +5935,16 @@
         <v>144671999318.0336</v>
       </c>
       <c r="G173">
-        <v>586685037808.7638</v>
+        <v>583650325452.5669</v>
       </c>
       <c r="H173">
-        <v>2435671024970.81</v>
+        <v>2432636312614.613</v>
       </c>
       <c r="I173">
-        <v>57.10350382671678</v>
+        <v>57.17474041384921</v>
       </c>
       <c r="J173">
-        <v>18.80929261442844</v>
+        <v>18.83275719580147</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -5967,16 +5967,16 @@
         <v>144866832547.7901</v>
       </c>
       <c r="G174">
-        <v>594624343538.646</v>
+        <v>591718565469.2194</v>
       </c>
       <c r="H174">
-        <v>2459133576313.514</v>
+        <v>2456227798244.087</v>
       </c>
       <c r="I174">
-        <v>56.94272766290241</v>
+        <v>57.01009231424887</v>
       </c>
       <c r="J174">
-        <v>18.87703466045836</v>
+        <v>18.89936665807331</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -5999,16 +5999,16 @@
         <v>144867050044.0113</v>
       </c>
       <c r="G175">
-        <v>590466825812.2729</v>
+        <v>587726778074.2056</v>
       </c>
       <c r="H175">
-        <v>2443407297658.357</v>
+        <v>2440667249920.29</v>
       </c>
       <c r="I175">
-        <v>57.0875616322464</v>
+        <v>57.15165174699979</v>
       </c>
       <c r="J175">
-        <v>18.7467241056186</v>
+        <v>18.76777036621944</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6031,16 +6031,16 @@
         <v>144638816934.9129</v>
       </c>
       <c r="G176">
-        <v>563400365191.2808</v>
+        <v>560856514994.2775</v>
       </c>
       <c r="H176">
-        <v>2371823879610.785</v>
+        <v>2369280029413.781</v>
       </c>
       <c r="I176">
-        <v>57.60827933314873</v>
+        <v>57.67013222977189</v>
       </c>
       <c r="J176">
-        <v>18.63783362513152</v>
+        <v>18.65784470704265</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6063,16 +6063,16 @@
         <v>144621870471.2727</v>
       </c>
       <c r="G177">
-        <v>553444620072.6589</v>
+        <v>551033238486.0585</v>
       </c>
       <c r="H177">
-        <v>2361901599266.569</v>
+        <v>2359490217679.969</v>
       </c>
       <c r="I177">
-        <v>57.83753650399807</v>
+        <v>57.89664603939475</v>
       </c>
       <c r="J177">
-        <v>18.73030102807704</v>
+        <v>18.74944325747564</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6095,16 +6095,16 @@
         <v>144670045902.5767</v>
       </c>
       <c r="G178">
-        <v>558934239942.8948</v>
+        <v>556463900638.2906</v>
       </c>
       <c r="H178">
-        <v>2376767028077.838</v>
+        <v>2374296688773.234</v>
       </c>
       <c r="I178">
-        <v>57.74887359551298</v>
+        <v>57.80895846734646</v>
       </c>
       <c r="J178">
-        <v>18.73454975477975</v>
+        <v>18.75404213533695</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6127,16 +6127,16 @@
         <v>144537091914.1572</v>
       </c>
       <c r="G179">
-        <v>544582346198.9039</v>
+        <v>542192304776.8786</v>
       </c>
       <c r="H179">
-        <v>2354467329894.326</v>
+        <v>2352077288472.301</v>
       </c>
       <c r="I179">
-        <v>58.16087873281268</v>
+        <v>58.21997836784342</v>
       </c>
       <c r="J179">
-        <v>18.70937385959232</v>
+        <v>18.72838521552172</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6159,16 +6159,16 @@
         <v>144604745731.7114</v>
       </c>
       <c r="G180">
-        <v>521310260225.3869</v>
+        <v>519138101228.9253</v>
       </c>
       <c r="H180">
-        <v>2269226951799.421</v>
+        <v>2267054792802.96</v>
       </c>
       <c r="I180">
-        <v>58.50737085276914</v>
+        <v>58.56342918552782</v>
       </c>
       <c r="J180">
-        <v>18.51959598225787</v>
+        <v>18.53734037341744</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6191,16 +6191,16 @@
         <v>144872985108.7647</v>
       </c>
       <c r="G181">
-        <v>540502416922.9564</v>
+        <v>538225533291.85</v>
       </c>
       <c r="H181">
-        <v>2313580902223.774</v>
+        <v>2311304018592.667</v>
       </c>
       <c r="I181">
-        <v>58.14554871686833</v>
+        <v>58.20282835080233</v>
       </c>
       <c r="J181">
-        <v>18.49229366835212</v>
+        <v>18.51051057119847</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6223,16 +6223,16 @@
         <v>145040688944.5307</v>
       </c>
       <c r="G182">
-        <v>520146226325.4845</v>
+        <v>518233406514.2924</v>
       </c>
       <c r="H182">
-        <v>2254459141095.551</v>
+        <v>2252546321284.359</v>
       </c>
       <c r="I182">
-        <v>58.42471887934173</v>
+        <v>58.4743320476392</v>
       </c>
       <c r="J182">
-        <v>18.50339585807063</v>
+        <v>18.51910859251574</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6255,16 +6255,16 @@
         <v>144957665560.147</v>
       </c>
       <c r="G183">
-        <v>512534149602.6693</v>
+        <v>510669063543.6611</v>
       </c>
       <c r="H183">
-        <v>2232763382787.969</v>
+        <v>2230898296728.96</v>
       </c>
       <c r="I183">
-        <v>58.31112334306798</v>
+        <v>58.35987288193837</v>
       </c>
       <c r="J183">
-        <v>18.73372818245789</v>
+        <v>18.74939004177151</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6287,16 +6287,16 @@
         <v>144913603089.8664</v>
       </c>
       <c r="G184">
-        <v>518552019219.3129</v>
+        <v>516699485696.5901</v>
       </c>
       <c r="H184">
-        <v>2251241228106.875</v>
+        <v>2249388694584.152</v>
       </c>
       <c r="I184">
-        <v>57.94005096534471</v>
+        <v>57.98776876839938</v>
       </c>
       <c r="J184">
-        <v>19.02589951809699</v>
+        <v>19.04156871601822</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6319,16 +6319,16 @@
         <v>145024571142.7817</v>
       </c>
       <c r="G185">
-        <v>525210418005.3255</v>
+        <v>523341170578.7905</v>
       </c>
       <c r="H185">
-        <v>2273833711810.092</v>
+        <v>2271964464383.557</v>
       </c>
       <c r="I185">
-        <v>57.78124340988339</v>
+        <v>57.82878263958487</v>
       </c>
       <c r="J185">
-        <v>19.12074307763199</v>
+        <v>19.13647457359137</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6351,16 +6351,16 @@
         <v>144968067382.2299</v>
       </c>
       <c r="G186">
-        <v>505152221142.7788</v>
+        <v>503413681200.6632</v>
       </c>
       <c r="H186">
-        <v>2235643732105.793</v>
+        <v>2233905192163.677</v>
       </c>
       <c r="I186">
-        <v>58.56610150220553</v>
+        <v>58.61168065528361</v>
       </c>
       <c r="J186">
-        <v>18.83851740516542</v>
+        <v>18.85317850854349</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6383,16 +6383,16 @@
         <v>145263117797.9631</v>
       </c>
       <c r="G187">
-        <v>484541997032.8287</v>
+        <v>482852150268.1891</v>
       </c>
       <c r="H187">
-        <v>2191789523085.147</v>
+        <v>2190099676320.508</v>
       </c>
       <c r="I187">
-        <v>58.50451662776973</v>
+        <v>58.54965780066206</v>
       </c>
       <c r="J187">
-        <v>19.38834252091391</v>
+        <v>19.40330226372147</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6415,16 +6415,16 @@
         <v>145403023498.2837</v>
       </c>
       <c r="G188">
-        <v>491298018362.3954</v>
+        <v>489515442974.806</v>
       </c>
       <c r="H188">
-        <v>2204490433144.56</v>
+        <v>2202707857756.97</v>
       </c>
       <c r="I188">
-        <v>58.00432354415309</v>
+        <v>58.05126443972372</v>
       </c>
       <c r="J188">
-        <v>19.70943692512727</v>
+        <v>19.72538709166535</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6447,16 +6447,16 @@
         <v>145461816372.3447</v>
       </c>
       <c r="G189">
-        <v>490386669217.7278</v>
+        <v>488684291590.237</v>
       </c>
       <c r="H189">
-        <v>2199274360554.067</v>
+        <v>2197571982926.576</v>
       </c>
       <c r="I189">
-        <v>58.16996459227931</v>
+        <v>58.21502670950832</v>
       </c>
       <c r="J189">
-        <v>19.53237768873632</v>
+        <v>19.54750869834481</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6479,16 +6479,16 @@
         <v>145562266912.175</v>
       </c>
       <c r="G190">
-        <v>488776391149.7423</v>
+        <v>486947151740.9236</v>
       </c>
       <c r="H190">
-        <v>2182105590311.153</v>
+        <v>2180276350902.334</v>
       </c>
       <c r="I190">
-        <v>57.89173320687739</v>
+        <v>57.94030404047057</v>
       </c>
       <c r="J190">
-        <v>19.70896616715949</v>
+        <v>19.72550187723364</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6511,16 +6511,16 @@
         <v>145620607178.5665</v>
       </c>
       <c r="G191">
-        <v>488243656949.8564</v>
+        <v>486448689527.3843</v>
       </c>
       <c r="H191">
-        <v>2181851283835.76</v>
+        <v>2180056316413.288</v>
       </c>
       <c r="I191">
-        <v>58.03952369588715</v>
+        <v>58.08731101838225</v>
       </c>
       <c r="J191">
-        <v>19.58298153318101</v>
+        <v>19.59910534320476</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6543,16 +6543,16 @@
         <v>145595530417.0388</v>
       </c>
       <c r="G192">
-        <v>477707990163.2765</v>
+        <v>475930201814.2026</v>
       </c>
       <c r="H192">
-        <v>2143898982590.27</v>
+        <v>2142121194241.196</v>
       </c>
       <c r="I192">
-        <v>58.22050795276578</v>
+        <v>58.26882629301367</v>
       </c>
       <c r="J192">
-        <v>19.49728593386095</v>
+        <v>19.51346711346225</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6575,16 +6575,16 @@
         <v>145405048001.4502</v>
       </c>
       <c r="G193">
-        <v>478625420793.2615</v>
+        <v>476770017562.275</v>
       </c>
       <c r="H193">
-        <v>2070433530471.272</v>
+        <v>2068578127240.286</v>
       </c>
       <c r="I193">
-        <v>57.42587979140641</v>
+        <v>57.47738771441117</v>
       </c>
       <c r="J193">
-        <v>19.45696074661767</v>
+        <v>19.47441259306188</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6607,16 +6607,16 @@
         <v>145758956884.5774</v>
       </c>
       <c r="G194">
-        <v>490279398603.6865</v>
+        <v>488393169221.253</v>
       </c>
       <c r="H194">
-        <v>2116150030443.926</v>
+        <v>2114263801061.492</v>
       </c>
       <c r="I194">
-        <v>57.55428467821409</v>
+        <v>57.60563143200635</v>
       </c>
       <c r="J194">
-        <v>19.27725412809466</v>
+        <v>19.29445222945306</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6639,16 +6639,16 @@
         <v>145715677701.1298</v>
       </c>
       <c r="G195">
-        <v>485787472221.061</v>
+        <v>484084311471.7662</v>
       </c>
       <c r="H195">
-        <v>2088413847241.839</v>
+        <v>2086710686492.544</v>
       </c>
       <c r="I195">
-        <v>57.37394851169131</v>
+        <v>57.42077678442201</v>
       </c>
       <c r="J195">
-        <v>19.36497836036335</v>
+        <v>19.38078393957843</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -6671,16 +6671,16 @@
         <v>145272146752.627</v>
       </c>
       <c r="G196">
-        <v>499301944635.5368</v>
+        <v>497584907124.7064</v>
       </c>
       <c r="H196">
-        <v>2127145336508.149</v>
+        <v>2125428298997.319</v>
       </c>
       <c r="I196">
-        <v>57.06859634295382</v>
+        <v>57.11469948398076</v>
       </c>
       <c r="J196">
-        <v>19.45853905931379</v>
+        <v>19.47425873401961</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6703,16 +6703,16 @@
         <v>144936251303.59</v>
       </c>
       <c r="G197">
-        <v>484232009833.1619</v>
+        <v>482497017754.5715</v>
       </c>
       <c r="H197">
-        <v>2079392089269.114</v>
+        <v>2077657097190.524</v>
       </c>
       <c r="I197">
-        <v>57.20757842206973</v>
+        <v>57.25535083626254</v>
       </c>
       <c r="J197">
-        <v>19.5052304641387</v>
+        <v>19.52151872479159</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6735,16 +6735,16 @@
         <v>144891761473.9497</v>
       </c>
       <c r="G198">
-        <v>483859454328.5615</v>
+        <v>482046602650.9874</v>
       </c>
       <c r="H198">
-        <v>2088838906496.984</v>
+        <v>2087026054819.41</v>
       </c>
       <c r="I198">
-        <v>57.43826912401376</v>
+        <v>57.48816167916322</v>
       </c>
       <c r="J198">
-        <v>19.39769209714133</v>
+        <v>19.41454149802838</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6767,16 +6767,16 @@
         <v>144982871638.77</v>
       </c>
       <c r="G199">
-        <v>496952281061.003</v>
+        <v>495135463726.0616</v>
       </c>
       <c r="H199">
-        <v>2146312384923.396</v>
+        <v>2144495567588.454</v>
       </c>
       <c r="I199">
-        <v>57.61867282579281</v>
+        <v>57.66748738395202</v>
       </c>
       <c r="J199">
-        <v>19.22755493900948</v>
+        <v>19.24384452974108</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -6799,16 +6799,16 @@
         <v>145293937122.8319</v>
       </c>
       <c r="G200">
-        <v>495744393383.0626</v>
+        <v>493894629561.1842</v>
       </c>
       <c r="H200">
-        <v>2147630592716.493</v>
+        <v>2145780828894.615</v>
       </c>
       <c r="I200">
-        <v>57.68213475265035</v>
+        <v>57.73185946106297</v>
       </c>
       <c r="J200">
-        <v>19.23454751736678</v>
+        <v>19.2511286004153</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -6831,16 +6831,16 @@
         <v>145204609329.43</v>
       </c>
       <c r="G201">
-        <v>501917004485.9693</v>
+        <v>500020390896.2435</v>
       </c>
       <c r="H201">
-        <v>2135669376434.619</v>
+        <v>2133772762844.894</v>
       </c>
       <c r="I201">
-        <v>57.2608228331028</v>
+        <v>57.31171937496292</v>
       </c>
       <c r="J201">
-        <v>19.23755233562806</v>
+        <v>19.25465172119907</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -6863,16 +6863,16 @@
         <v>145289661787.959</v>
       </c>
       <c r="G202">
-        <v>477143808969.4357</v>
+        <v>475446996956.8538</v>
       </c>
       <c r="H202">
-        <v>2060052709551.963</v>
+        <v>2058355897539.381</v>
       </c>
       <c r="I202">
-        <v>57.61683498734709</v>
+        <v>57.66433160241271</v>
       </c>
       <c r="J202">
-        <v>19.22143683176531</v>
+        <v>19.23728208231417</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -6895,16 +6895,16 @@
         <v>145427316042.2732</v>
       </c>
       <c r="G203">
-        <v>440670741909.3242</v>
+        <v>439189580338.3073</v>
       </c>
       <c r="H203">
-        <v>1940364079493.408</v>
+        <v>1938882917922.391</v>
       </c>
       <c r="I203">
-        <v>58.24276386759875</v>
+        <v>58.28725698414181</v>
       </c>
       <c r="J203">
-        <v>19.0465115541368</v>
+        <v>19.06106166477791</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -6927,16 +6927,16 @@
         <v>145917671576.396</v>
       </c>
       <c r="G204">
-        <v>436334532575.4669</v>
+        <v>434874170781.0071</v>
       </c>
       <c r="H204">
-        <v>1913703617766.475</v>
+        <v>1912243255972.015</v>
       </c>
       <c r="I204">
-        <v>58.44638931517898</v>
+        <v>58.49102426092318</v>
       </c>
       <c r="J204">
-        <v>18.75308250874312</v>
+        <v>18.76740405760391</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -6959,16 +6959,16 @@
         <v>145900022696.9383</v>
       </c>
       <c r="G205">
-        <v>461537411312.6567</v>
+        <v>459971157281.9869</v>
       </c>
       <c r="H205">
-        <v>1976993156647.795</v>
+        <v>1975426902617.125</v>
       </c>
       <c r="I205">
-        <v>58.02631772187341</v>
+        <v>58.07232496916582</v>
       </c>
       <c r="J205">
-        <v>18.62825946972177</v>
+        <v>18.64302923236911</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -6991,16 +6991,16 @@
         <v>145807561306.682</v>
       </c>
       <c r="G206">
-        <v>429316410560.4356</v>
+        <v>427888804847.7601</v>
       </c>
       <c r="H206">
-        <v>1880745949370.721</v>
+        <v>1879318343658.046</v>
       </c>
       <c r="I206">
-        <v>58.51146904215866</v>
+        <v>58.55591670465476</v>
       </c>
       <c r="J206">
-        <v>18.66160897488663</v>
+        <v>18.67578508276647</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7023,16 +7023,16 @@
         <v>146120242622.2962</v>
       </c>
       <c r="G207">
-        <v>445406580455.3715</v>
+        <v>443962224822.9336</v>
       </c>
       <c r="H207">
-        <v>1925858381574.477</v>
+        <v>1924414025942.039</v>
       </c>
       <c r="I207">
-        <v>58.0320689903473</v>
+        <v>58.07562455821279</v>
       </c>
       <c r="J207">
-        <v>18.84023975692252</v>
+        <v>18.85438016851927</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7055,16 +7055,16 @@
         <v>146225433428.0457</v>
       </c>
       <c r="G208">
-        <v>454458035025.1293</v>
+        <v>452992702705.4255</v>
       </c>
       <c r="H208">
-        <v>1967985948188.288</v>
+        <v>1966520615868.584</v>
       </c>
       <c r="I208">
-        <v>58.17087714680328</v>
+        <v>58.21422256899764</v>
       </c>
       <c r="J208">
-        <v>18.73657814049184</v>
+        <v>18.75053950620973</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7087,16 +7087,16 @@
         <v>146411260881.1865</v>
       </c>
       <c r="G209">
-        <v>457433475375.522</v>
+        <v>455950503268.9354</v>
       </c>
       <c r="H209">
-        <v>1969651930387.508</v>
+        <v>1968168958280.922</v>
       </c>
       <c r="I209">
-        <v>57.84528038913101</v>
+        <v>57.88886553813656</v>
       </c>
       <c r="J209">
-        <v>18.93064289364278</v>
+        <v>18.94490671751467</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7119,16 +7119,16 @@
         <v>146366842094.4377</v>
       </c>
       <c r="G210">
-        <v>452720267888.4202</v>
+        <v>451147257503.6783</v>
       </c>
       <c r="H210">
-        <v>1955381653311.776</v>
+        <v>1953808642927.034</v>
       </c>
       <c r="I210">
-        <v>57.80337279025939</v>
+        <v>57.84991025747828</v>
       </c>
       <c r="J210">
-        <v>19.04410007409625</v>
+        <v>19.05943246977024</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7151,16 +7151,16 @@
         <v>146209320287.2189</v>
       </c>
       <c r="G211">
-        <v>462274490365.7618</v>
+        <v>460721178065.0245</v>
       </c>
       <c r="H211">
-        <v>1980142135587.602</v>
+        <v>1978588823286.865</v>
       </c>
       <c r="I211">
-        <v>57.65077945111437</v>
+        <v>57.69603881163159</v>
       </c>
       <c r="J211">
-        <v>19.00369993914501</v>
+        <v>19.01861899687321</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7183,16 +7183,16 @@
         <v>146354938831.5977</v>
       </c>
       <c r="G212">
-        <v>472783422743.9623</v>
+        <v>471166408084.7825</v>
       </c>
       <c r="H212">
-        <v>2022866461012.828</v>
+        <v>2021249446353.648</v>
       </c>
       <c r="I212">
-        <v>57.75822627167979</v>
+        <v>57.8044332842472</v>
       </c>
       <c r="J212">
-        <v>18.86981953084714</v>
+        <v>18.88491552746077</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7215,16 +7215,16 @@
         <v>146433491982.7778</v>
       </c>
       <c r="G213">
-        <v>484468676408.0995</v>
+        <v>482819561773.658</v>
       </c>
       <c r="H213">
-        <v>2080111656837.379</v>
+        <v>2078462542202.938</v>
       </c>
       <c r="I213">
-        <v>57.88435269188225</v>
+        <v>57.93027987661188</v>
       </c>
       <c r="J213">
-        <v>18.82513428129831</v>
+        <v>18.84007070849306</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7247,16 +7247,16 @@
         <v>146572293863.9787</v>
       </c>
       <c r="G214">
-        <v>514930108627.8433</v>
+        <v>513132854698.0281</v>
       </c>
       <c r="H214">
-        <v>2212053653067.985</v>
+        <v>2210256399138.17</v>
       </c>
       <c r="I214">
-        <v>57.76564198875901</v>
+        <v>57.81261370077987</v>
       </c>
       <c r="J214">
-        <v>18.95598463572789</v>
+        <v>18.97139855688805</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7279,16 +7279,16 @@
         <v>147000284470.4743</v>
       </c>
       <c r="G215">
-        <v>515075960816.8474</v>
+        <v>513098736905.9789</v>
       </c>
       <c r="H215">
-        <v>2214679197404.124</v>
+        <v>2212701973493.255</v>
       </c>
       <c r="I215">
-        <v>58.01741126575991</v>
+        <v>58.06925440332456</v>
       </c>
       <c r="J215">
-        <v>18.72522661061605</v>
+        <v>18.74195907898932</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7311,16 +7311,16 @@
         <v>146964251615.8209</v>
       </c>
       <c r="G216">
-        <v>509892403478.1854</v>
+        <v>507893737626.7565</v>
       </c>
       <c r="H216">
-        <v>2183817489563.205</v>
+        <v>2181818823711.776</v>
       </c>
       <c r="I216">
-        <v>57.97263114055237</v>
+        <v>58.02573725409344</v>
       </c>
       <c r="J216">
-        <v>18.67869590875288</v>
+        <v>18.69580661989733</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7343,16 +7343,16 @@
         <v>147279465176.4288</v>
       </c>
       <c r="G217">
-        <v>506710675462.4572</v>
+        <v>504761255933.5379</v>
       </c>
       <c r="H217">
-        <v>2180400090692.032</v>
+        <v>2178450671163.113</v>
       </c>
       <c r="I217">
-        <v>57.85434969331193</v>
+        <v>57.90612153309604</v>
       </c>
       <c r="J217">
-        <v>18.90630640711809</v>
+        <v>18.92322500133629</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7375,16 +7375,16 @@
         <v>147677678489.2596</v>
       </c>
       <c r="G218">
-        <v>525366222554.1243</v>
+        <v>523129286414.8513</v>
       </c>
       <c r="H218">
-        <v>2262905631024.873</v>
+        <v>2260668694885.6</v>
       </c>
       <c r="I218">
-        <v>58.16183318911239</v>
+        <v>58.21938443794485</v>
       </c>
       <c r="J218">
-        <v>18.62172263613936</v>
+        <v>18.64014886747283</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7407,16 +7407,16 @@
         <v>148045505536.9596</v>
       </c>
       <c r="G219">
-        <v>531648164544.6364</v>
+        <v>529451851484.7886</v>
       </c>
       <c r="H219">
-        <v>2280857808976.142</v>
+        <v>2278661495916.294</v>
       </c>
       <c r="I219">
-        <v>58.12107068888599</v>
+        <v>58.17709132505117</v>
       </c>
       <c r="J219">
-        <v>18.56979699903495</v>
+        <v>18.5876957030508</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7439,16 +7439,16 @@
         <v>148037809066.7845</v>
       </c>
       <c r="G220">
-        <v>542506827189.4937</v>
+        <v>540285740965.1953</v>
       </c>
       <c r="H220">
-        <v>2310634435601.538</v>
+        <v>2308413349377.24</v>
       </c>
       <c r="I220">
-        <v>58.13757130012465</v>
+        <v>58.19350953092881</v>
       </c>
       <c r="J220">
-        <v>18.38373302951242</v>
+        <v>18.40142130713135</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7471,16 +7471,16 @@
         <v>148100357479.4984</v>
       </c>
       <c r="G221">
-        <v>527826271723.0316</v>
+        <v>525772619189.7103</v>
       </c>
       <c r="H221">
-        <v>2274989763030.891</v>
+        <v>2272936110497.57</v>
       </c>
       <c r="I221">
-        <v>58.60254418532412</v>
+        <v>58.65549299579417</v>
       </c>
       <c r="J221">
-        <v>18.19619661341131</v>
+        <v>18.21263731541756</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7503,16 +7503,16 @@
         <v>148431384348.4642</v>
       </c>
       <c r="G222">
-        <v>518432244020.2675</v>
+        <v>516416696199.0699</v>
       </c>
       <c r="H222">
-        <v>2238275048112.702</v>
+        <v>2236259500291.504</v>
       </c>
       <c r="I222">
-        <v>58.12349077529595</v>
+        <v>58.17587766294351</v>
       </c>
       <c r="J222">
-        <v>18.71437620367941</v>
+        <v>18.73124353064995</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -7535,16 +7535,16 @@
         <v>148477233051.831</v>
       </c>
       <c r="G223">
-        <v>513128025421.2319</v>
+        <v>511148374427.7482</v>
       </c>
       <c r="H223">
-        <v>2204727829996.273</v>
+        <v>2202748179002.79</v>
       </c>
       <c r="I223">
-        <v>58.5309011149234</v>
+        <v>58.58350393064522</v>
       </c>
       <c r="J223">
-        <v>18.1951138407594</v>
+        <v>18.21146612992926</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -7567,16 +7567,16 @@
         <v>148194052647.6223</v>
       </c>
       <c r="G224">
-        <v>501917377273.9249</v>
+        <v>499954623253.6512</v>
       </c>
       <c r="H224">
-        <v>2180824877458.636</v>
+        <v>2178862123438.363</v>
       </c>
       <c r="I224">
-        <v>59.47864765577636</v>
+        <v>59.53222697754757</v>
       </c>
       <c r="J224">
-        <v>17.50632796231086</v>
+        <v>17.52209794390751</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -7599,16 +7599,16 @@
         <v>148423020570.8482</v>
       </c>
       <c r="G225">
-        <v>520537763038.0524</v>
+        <v>518500824839.8428</v>
       </c>
       <c r="H225">
-        <v>2254655609035.913</v>
+        <v>2252618670837.704</v>
       </c>
       <c r="I225">
-        <v>59.42938520315981</v>
+        <v>59.48312442959151</v>
       </c>
       <c r="J225">
-        <v>17.4833742909328</v>
+        <v>17.49918369240311</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7631,16 +7631,16 @@
         <v>148472122283.2704</v>
       </c>
       <c r="G226">
-        <v>520355782222.5597</v>
+        <v>518300267707.5573</v>
       </c>
       <c r="H226">
-        <v>2254669375971.91</v>
+        <v>2252613861456.907</v>
       </c>
       <c r="I226">
-        <v>59.56037040774367</v>
+        <v>59.61471936119139</v>
       </c>
       <c r="J226">
-        <v>17.36060134234931</v>
+        <v>17.37644292472566</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7663,16 +7663,16 @@
         <v>148600415287.1808</v>
       </c>
       <c r="G227">
-        <v>517400136629.9511</v>
+        <v>515390993785.7003</v>
       </c>
       <c r="H227">
-        <v>2257242525059.286</v>
+        <v>2255233382215.035</v>
       </c>
       <c r="I227">
-        <v>59.64194664169707</v>
+        <v>59.69508047310332</v>
       </c>
       <c r="J227">
-        <v>17.43627464441121</v>
+        <v>17.45180827685408</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7695,16 +7695,16 @@
         <v>148167319844.6238</v>
       </c>
       <c r="G228">
-        <v>510427238025.4822</v>
+        <v>508416718423.8859</v>
       </c>
       <c r="H228">
-        <v>2227248096170.276</v>
+        <v>2225237576568.679</v>
       </c>
       <c r="I228">
-        <v>59.15737073758505</v>
+        <v>59.21081988598127</v>
       </c>
       <c r="J228">
-        <v>17.92523452299837</v>
+        <v>17.94143011296647</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7727,16 +7727,16 @@
         <v>147900356107.4624</v>
       </c>
       <c r="G229">
-        <v>506495430147.6904</v>
+        <v>504584617733.7019</v>
       </c>
       <c r="H229">
-        <v>2207196730746.564</v>
+        <v>2205285918332.575</v>
       </c>
       <c r="I229">
-        <v>59.20443432226307</v>
+        <v>59.25573314348427</v>
       </c>
       <c r="J229">
-        <v>17.84811278003474</v>
+        <v>17.86357762075351</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7759,16 +7759,16 @@
         <v>147663850389.295</v>
       </c>
       <c r="G230">
-        <v>495654436504.7344</v>
+        <v>493752935822.728</v>
       </c>
       <c r="H230">
-        <v>2159689702073.655</v>
+        <v>2157788201391.649</v>
       </c>
       <c r="I230">
-        <v>59.05484813477866</v>
+        <v>59.10688884662036</v>
       </c>
       <c r="J230">
-        <v>17.99489025917557</v>
+        <v>18.01074783781947</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -7791,16 +7791,16 @@
         <v>147413475962.1523</v>
       </c>
       <c r="G231">
-        <v>490388165196.8848</v>
+        <v>488622766079.5572</v>
       </c>
       <c r="H231">
-        <v>2164885409933.168</v>
+        <v>2163120010815.841</v>
       </c>
       <c r="I231">
-        <v>59.54851317360605</v>
+        <v>59.59711283153959</v>
       </c>
       <c r="J231">
-        <v>17.79956432985759</v>
+        <v>17.81409118689725</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -7823,16 +7823,16 @@
         <v>147336455156.1398</v>
       </c>
       <c r="G232">
-        <v>455675392214.3881</v>
+        <v>454074114184.9144</v>
       </c>
       <c r="H232">
-        <v>2026072967498.596</v>
+        <v>2024471689469.123</v>
       </c>
       <c r="I232">
-        <v>59.81295292348891</v>
+        <v>59.86026263292694</v>
       </c>
       <c r="J232">
-        <v>17.6964754374764</v>
+        <v>17.7104726583141</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -7855,16 +7855,16 @@
         <v>147577299612.067</v>
       </c>
       <c r="G233">
-        <v>441444615824.4244</v>
+        <v>439958098091.188</v>
       </c>
       <c r="H233">
-        <v>1988802228414.504</v>
+        <v>1987315710681.268</v>
       </c>
       <c r="I233">
-        <v>60.2353594340953</v>
+        <v>60.28041565213121</v>
       </c>
       <c r="J233">
-        <v>17.56813406981388</v>
+        <v>17.5812750834406</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -7887,16 +7887,16 @@
         <v>147571617003.8351</v>
       </c>
       <c r="G234">
-        <v>418621166441.4337</v>
+        <v>417253531306.1073</v>
       </c>
       <c r="H234">
-        <v>1889879680181.827</v>
+        <v>1888512045046.5</v>
       </c>
       <c r="I234">
-        <v>60.73693039607725</v>
+        <v>60.78091526778585</v>
       </c>
       <c r="J234">
-        <v>17.112391397723</v>
+        <v>17.1247839624336</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -7919,16 +7919,16 @@
         <v>147996443096.8459</v>
       </c>
       <c r="G235">
-        <v>389021133910.199</v>
+        <v>387746793995.1055</v>
       </c>
       <c r="H235">
-        <v>1745155234808.589</v>
+        <v>1743880894893.495</v>
       </c>
       <c r="I235">
-        <v>61.01973152724305</v>
+        <v>61.06432165935652</v>
       </c>
       <c r="J235">
-        <v>16.68877679620891</v>
+        <v>16.70097210981534</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -7951,16 +7951,16 @@
         <v>148554713592.1028</v>
       </c>
       <c r="G236">
-        <v>408607323374.5224</v>
+        <v>407265320708.4169</v>
       </c>
       <c r="H236">
-        <v>1807795340040.287</v>
+        <v>1806453337374.181</v>
       </c>
       <c r="I236">
-        <v>61.06993390590792</v>
+        <v>61.11530237041515</v>
       </c>
       <c r="J236">
-        <v>16.32754498318929</v>
+        <v>16.33967461225032</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -7983,16 +7983,16 @@
         <v>149249598700.087</v>
       </c>
       <c r="G237">
-        <v>407824988573.1955</v>
+        <v>406547256076.0052</v>
       </c>
       <c r="H237">
-        <v>1778489953654.03</v>
+        <v>1777212221156.839</v>
       </c>
       <c r="I237">
-        <v>61.20735747474397</v>
+        <v>61.25136270314698</v>
       </c>
       <c r="J237">
-        <v>15.86167303986248</v>
+        <v>15.87307684119896</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8015,16 +8015,16 @@
         <v>149481391072.8619</v>
       </c>
       <c r="G238">
-        <v>448936010935.1262</v>
+        <v>447458213917.965</v>
       </c>
       <c r="H238">
-        <v>1990106283468.054</v>
+        <v>1988628486450.893</v>
       </c>
       <c r="I238">
-        <v>61.21999118335866</v>
+        <v>61.26548521151817</v>
       </c>
       <c r="J238">
-        <v>16.22161509342828</v>
+        <v>16.23366976053273</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8047,16 +8047,16 @@
         <v>149948033676.2229</v>
       </c>
       <c r="G239">
-        <v>439210123885.16</v>
+        <v>437771925954.4608</v>
       </c>
       <c r="H239">
-        <v>1949864166419.317</v>
+        <v>1948425968488.618</v>
       </c>
       <c r="I239">
-        <v>61.45558883518439</v>
+        <v>61.50095124675252</v>
       </c>
       <c r="J239">
-        <v>16.01924600463348</v>
+        <v>16.03107034224129</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8079,16 +8079,16 @@
         <v>150142077900.0273</v>
       </c>
       <c r="G240">
-        <v>442630495201.0746</v>
+        <v>441202129244.3287</v>
       </c>
       <c r="H240">
-        <v>1958146966985.589</v>
+        <v>1956718601028.843</v>
       </c>
       <c r="I240">
-        <v>61.37532114973895</v>
+        <v>61.42012392274297</v>
       </c>
       <c r="J240">
-        <v>16.02011940381312</v>
+        <v>16.03181377477039</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8111,16 +8111,16 @@
         <v>149994340344.4996</v>
       </c>
       <c r="G241">
-        <v>420008067331.0767</v>
+        <v>418696107474.0278</v>
       </c>
       <c r="H241">
-        <v>1886895148750.065</v>
+        <v>1885583188893.016</v>
       </c>
       <c r="I241">
-        <v>61.43143757433874</v>
+        <v>61.47418062621419</v>
       </c>
       <c r="J241">
-        <v>16.30934640036688</v>
+        <v>16.32069419339878</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8143,16 +8143,16 @@
         <v>150099610159.1599</v>
       </c>
       <c r="G242">
-        <v>436400218456.0301</v>
+        <v>435014377506.3255</v>
       </c>
       <c r="H242">
-        <v>1935912202127.331</v>
+        <v>1934526361177.626</v>
       </c>
       <c r="I242">
-        <v>60.51110148211368</v>
+        <v>60.55444995439534</v>
       </c>
       <c r="J242">
-        <v>16.94654262093606</v>
+        <v>16.95868265334467</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8175,16 +8175,16 @@
         <v>150272156393.8617</v>
       </c>
       <c r="G243">
-        <v>439589265071.4108</v>
+        <v>438137432285.2418</v>
       </c>
       <c r="H243">
-        <v>1960389459156.533</v>
+        <v>1958937626370.364</v>
       </c>
       <c r="I243">
-        <v>60.99798219203563</v>
+        <v>61.0431897929538</v>
       </c>
       <c r="J243">
-        <v>16.57844972468433</v>
+        <v>16.59073655634764</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -8207,16 +8207,16 @@
         <v>150666098861.5611</v>
       </c>
       <c r="G244">
-        <v>453023686238.2108</v>
+        <v>451643873053.3938</v>
       </c>
       <c r="H244">
-        <v>1932734248524.026</v>
+        <v>1931354435339.209</v>
       </c>
       <c r="I244">
-        <v>59.99165576504968</v>
+        <v>60.03451546811038</v>
       </c>
       <c r="J244">
-        <v>16.56882136292732</v>
+        <v>16.58065858853186</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -8239,16 +8239,16 @@
         <v>151087082492.5104</v>
       </c>
       <c r="G245">
-        <v>444225156378.7144</v>
+        <v>442841928035.4098</v>
       </c>
       <c r="H245">
-        <v>1890369090994.568</v>
+        <v>1888985862651.263</v>
       </c>
       <c r="I245">
-        <v>60.15448740899527</v>
+        <v>60.19853611979096</v>
       </c>
       <c r="J245">
-        <v>16.3461251700542</v>
+        <v>16.35809477982496</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -8271,16 +8271,16 @@
         <v>151557498479.162</v>
       </c>
       <c r="G246">
-        <v>443681473540.9114</v>
+        <v>442272002948.0148</v>
       </c>
       <c r="H246">
-        <v>1918183998421.469</v>
+        <v>1916774527828.573</v>
       </c>
       <c r="I246">
-        <v>60.61546049841656</v>
+        <v>60.66003314262016</v>
       </c>
       <c r="J246">
-        <v>16.25425200538755</v>
+        <v>16.26620431896356</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -8303,16 +8303,16 @@
         <v>151698159933.4743</v>
       </c>
       <c r="G247">
-        <v>450965643859.9688</v>
+        <v>449559039778.1928</v>
       </c>
       <c r="H247">
-        <v>1938448650205.555</v>
+        <v>1937042046123.779</v>
       </c>
       <c r="I247">
-        <v>60.52626141563031</v>
+        <v>60.57021321653841</v>
       </c>
       <c r="J247">
-        <v>16.20948323191824</v>
+        <v>16.22125392389838</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -8335,16 +8335,16 @@
         <v>151517086667.0213</v>
       </c>
       <c r="G248">
-        <v>448656885272.4332</v>
+        <v>447267793330.6384</v>
       </c>
       <c r="H248">
-        <v>1919556143078.301</v>
+        <v>1918167051136.506</v>
       </c>
       <c r="I248">
-        <v>60.23357063367752</v>
+        <v>60.27719038386725</v>
       </c>
       <c r="J248">
-        <v>16.39348000559458</v>
+        <v>16.40535178233073</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -8367,16 +8367,16 @@
         <v>151951994439.2656</v>
       </c>
       <c r="G249">
-        <v>460360991306.0197</v>
+        <v>458956742590.0818</v>
       </c>
       <c r="H249">
-        <v>1954041150247.787</v>
+        <v>1952636901531.849</v>
       </c>
       <c r="I249">
-        <v>60.18621471777507</v>
+        <v>60.22949793887382</v>
       </c>
       <c r="J249">
-        <v>16.25435352472882</v>
+        <v>16.26604292537857</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -8399,16 +8399,16 @@
         <v>151751720526.0174</v>
       </c>
       <c r="G250">
-        <v>462494751299.8479</v>
+        <v>460953858151.345</v>
       </c>
       <c r="H250">
-        <v>1938450828292.257</v>
+        <v>1936909935143.754</v>
       </c>
       <c r="I250">
-        <v>60.15571023539425</v>
+        <v>60.2035666277144</v>
       </c>
       <c r="J250">
-        <v>15.98530172376398</v>
+        <v>15.998018702213</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -8431,16 +8431,16 @@
         <v>152206650392.2243</v>
       </c>
       <c r="G251">
-        <v>470003534654.6182</v>
+        <v>468418606939.5197</v>
       </c>
       <c r="H251">
-        <v>1993463313902.289</v>
+        <v>1991878386187.19</v>
       </c>
       <c r="I251">
-        <v>60.55285998915949</v>
+        <v>60.60104159838365</v>
       </c>
       <c r="J251">
-        <v>15.8699047852488</v>
+        <v>15.88253238947632</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -8463,16 +8463,16 @@
         <v>152118518088.8697</v>
       </c>
       <c r="G252">
-        <v>476799284676.0645</v>
+        <v>475192780485.9061</v>
       </c>
       <c r="H252">
-        <v>1984738272319.388</v>
+        <v>1983131768129.23</v>
       </c>
       <c r="I252">
-        <v>60.07383438625853</v>
+        <v>60.12249926481646</v>
       </c>
       <c r="J252">
-        <v>15.90288298117193</v>
+        <v>15.91576565924478</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -8495,16 +8495,16 @@
         <v>152666935765.4472</v>
       </c>
       <c r="G253">
-        <v>500433235058.6172</v>
+        <v>498708334317.0879</v>
       </c>
       <c r="H253">
-        <v>2094530830925.88</v>
+        <v>2092805930184.35</v>
       </c>
       <c r="I253">
-        <v>60.24816705692476</v>
+        <v>60.29782388679772</v>
       </c>
       <c r="J253">
-        <v>15.85945438890507</v>
+        <v>15.87252582770459</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -8527,16 +8527,16 @@
         <v>152846944983.0202</v>
       </c>
       <c r="G254">
-        <v>502692749555.9645</v>
+        <v>500976841161.0756</v>
       </c>
       <c r="H254">
-        <v>2100604710585.765</v>
+        <v>2098888802190.876</v>
       </c>
       <c r="I254">
-        <v>60.21893989023003</v>
+        <v>60.26817079011433</v>
       </c>
       <c r="J254">
-        <v>15.85020119934766</v>
+        <v>15.86315924327559</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -8559,16 +8559,16 @@
         <v>152717378993.1919</v>
       </c>
       <c r="G255">
-        <v>496633720512.0221</v>
+        <v>494918395631.9207</v>
       </c>
       <c r="H255">
-        <v>2096257345157.447</v>
+        <v>2094542020277.345</v>
       </c>
       <c r="I255">
-        <v>60.55034608237852</v>
+        <v>60.59993377941603</v>
       </c>
       <c r="J255">
-        <v>15.75820583948865</v>
+        <v>15.77111101984815</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -8591,16 +8591,16 @@
         <v>152422527334.406</v>
       </c>
       <c r="G256">
-        <v>480667701229.6633</v>
+        <v>479040077075.6277</v>
       </c>
       <c r="H256">
-        <v>2045972169940.506</v>
+        <v>2044344545786.471</v>
       </c>
       <c r="I256">
-        <v>60.7284811526733</v>
+        <v>60.77683070459482</v>
       </c>
       <c r="J256">
-        <v>15.77815426047407</v>
+        <v>15.79071618651211</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -8623,16 +8623,16 @@
         <v>152271242862.6457</v>
       </c>
       <c r="G257">
-        <v>458102518372.2925</v>
+        <v>456544998208.3264</v>
       </c>
       <c r="H257">
-        <v>1930500932459.305</v>
+        <v>1928943412295.339</v>
       </c>
       <c r="I257">
-        <v>60.95631576872498</v>
+        <v>61.00553478174822</v>
       </c>
       <c r="J257">
-        <v>15.31396151165394</v>
+        <v>15.32632672863883</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -8655,16 +8655,16 @@
         <v>152594935944.0498</v>
       </c>
       <c r="G258">
-        <v>457387223922.2599</v>
+        <v>456988062570.2522</v>
       </c>
       <c r="H258">
-        <v>1927378068765.522</v>
+        <v>1926978907413.515</v>
       </c>
       <c r="I258">
-        <v>60.49837417122765</v>
+        <v>60.51090602237326</v>
       </c>
       <c r="J258">
-        <v>15.77056697039206</v>
+        <v>15.77383374244109</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -8687,16 +8687,16 @@
         <v>152844422404.677</v>
       </c>
       <c r="G259">
-        <v>453868318261.0735</v>
+        <v>453500100156.6359</v>
       </c>
       <c r="H259">
-        <v>1929736968353.114</v>
+        <v>1929368750248.677</v>
       </c>
       <c r="I259">
-        <v>60.72134572018528</v>
+        <v>60.73293432854079</v>
       </c>
       <c r="J259">
-        <v>15.75895570408519</v>
+        <v>15.76196328508624</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -8719,16 +8719,16 @@
         <v>152969703994.78</v>
       </c>
       <c r="G260">
-        <v>453938366233.9923</v>
+        <v>453604719200.0429</v>
       </c>
       <c r="H260">
-        <v>1926195128515.577</v>
+        <v>1925861481481.627</v>
       </c>
       <c r="I260">
-        <v>60.65051190329184</v>
+        <v>60.66101933780809</v>
       </c>
       <c r="J260">
-        <v>15.78290548449795</v>
+        <v>15.78563980347812</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -8751,16 +8751,16 @@
         <v>152955293231.8222</v>
       </c>
       <c r="G261">
-        <v>449220030494.0381</v>
+        <v>448932416285.9433</v>
       </c>
       <c r="H261">
-        <v>1915881835780.439</v>
+        <v>1915594221572.344</v>
       </c>
       <c r="I261">
-        <v>60.76983911677375</v>
+        <v>60.77896331904832</v>
       </c>
       <c r="J261">
-        <v>15.78299299925039</v>
+        <v>15.78536271460123</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -8783,16 +8783,16 @@
         <v>153049131166.4672</v>
       </c>
       <c r="G262">
-        <v>432211938362.5373</v>
+        <v>431951961379.3654</v>
       </c>
       <c r="H262">
-        <v>1857781033900.215</v>
+        <v>1857521056917.043</v>
       </c>
       <c r="I262">
-        <v>60.9938957812335</v>
+        <v>61.00243243224914</v>
       </c>
       <c r="J262">
-        <v>15.7411483130022</v>
+        <v>15.74335143001928</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -8815,16 +8815,16 @@
         <v>152781173122.0845</v>
       </c>
       <c r="G263">
-        <v>446817345293.322</v>
+        <v>446537555618.9105</v>
       </c>
       <c r="H263">
-        <v>1920066476810.953</v>
+        <v>1919786687136.542</v>
       </c>
       <c r="I263">
-        <v>60.85259588806534</v>
+        <v>60.86146454420548</v>
       </c>
       <c r="J263">
-        <v>15.87647309524179</v>
+        <v>15.87878693212163</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -8847,16 +8847,16 @@
         <v>152497099663.6713</v>
       </c>
       <c r="G264">
-        <v>431725542477.5701</v>
+        <v>431485861273.1238</v>
       </c>
       <c r="H264">
-        <v>1862905446197.743</v>
+        <v>1862665764993.297</v>
       </c>
       <c r="I264">
-        <v>61.05310426205332</v>
+        <v>61.06096035832122</v>
       </c>
       <c r="J264">
-        <v>15.77204575515569</v>
+        <v>15.77407524589644</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -8879,16 +8879,16 @@
         <v>152976305364.4938</v>
       </c>
       <c r="G265">
-        <v>434933263525.9136</v>
+        <v>434656825246.6961</v>
       </c>
       <c r="H265">
-        <v>1874245852704.528</v>
+        <v>1873969414425.31</v>
       </c>
       <c r="I265">
-        <v>61.0903407095721</v>
+        <v>61.09935244078424</v>
       </c>
       <c r="J265">
-        <v>15.70388493066036</v>
+        <v>15.70620148657309</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -8911,16 +8911,16 @@
         <v>153054367818.2375</v>
       </c>
       <c r="G266">
-        <v>428141178919.9686</v>
+        <v>427844252074.5284</v>
       </c>
       <c r="H266">
-        <v>1822342847111.055</v>
+        <v>1822045920265.615</v>
       </c>
       <c r="I266">
-        <v>60.86739137922599</v>
+        <v>60.87731053785497</v>
       </c>
       <c r="J266">
-        <v>15.63861134146419</v>
+        <v>15.64115986314579</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -8943,16 +8943,16 @@
         <v>153065806136.9626</v>
       </c>
       <c r="G267">
-        <v>413493216100.7267</v>
+        <v>413216125717.9112</v>
       </c>
       <c r="H267">
-        <v>1746529779238.25</v>
+        <v>1746252688855.434</v>
       </c>
       <c r="I267">
-        <v>61.00451614087118</v>
+        <v>61.01419616303454</v>
       </c>
       <c r="J267">
-        <v>15.32035269239474</v>
+        <v>15.32278368214753</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -8975,16 +8975,16 @@
         <v>153151196767.0562</v>
       </c>
       <c r="G268">
-        <v>420164556953.7795</v>
+        <v>419929039512.7812</v>
       </c>
       <c r="H268">
-        <v>1762469593189.916</v>
+        <v>1762234075748.917</v>
       </c>
       <c r="I268">
-        <v>60.65095999503114</v>
+        <v>60.65906581881965</v>
       </c>
       <c r="J268">
-        <v>15.50950492434835</v>
+        <v>15.51157772441572</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9007,16 +9007,16 @@
         <v>153068584392.3669</v>
       </c>
       <c r="G269">
-        <v>428822234837.8444</v>
+        <v>428556082621.7369</v>
       </c>
       <c r="H269">
-        <v>1790556931927.127</v>
+        <v>1790290779711.019</v>
       </c>
       <c r="I269">
-        <v>60.61746813073107</v>
+        <v>60.62647978049247</v>
       </c>
       <c r="J269">
-        <v>15.43343384330921</v>
+        <v>15.43572824300455</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9039,16 +9039,16 @@
         <v>153312394276.0073</v>
       </c>
       <c r="G270">
-        <v>444150557227.8351</v>
+        <v>443882839628.9279</v>
       </c>
       <c r="H270">
-        <v>1855016723996.646</v>
+        <v>1854749006397.738</v>
       </c>
       <c r="I270">
-        <v>60.74554773846076</v>
+        <v>60.75431585324543</v>
       </c>
       <c r="J270">
-        <v>15.31124185905241</v>
+        <v>15.3134519095189</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9071,16 +9071,16 @@
         <v>153701141055.1047</v>
       </c>
       <c r="G271">
-        <v>448252735293.7225</v>
+        <v>448107868117.7433</v>
       </c>
       <c r="H271">
-        <v>1873604402738.059</v>
+        <v>1873459535562.08</v>
       </c>
       <c r="I271">
-        <v>60.73474081164494</v>
+        <v>60.73943718763717</v>
       </c>
       <c r="J271">
-        <v>15.34063910107024</v>
+        <v>15.3418253316891</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -9103,16 +9103,16 @@
         <v>153837863389.2664</v>
       </c>
       <c r="G272">
-        <v>445669601221.2649</v>
+        <v>445527360880.0851</v>
       </c>
       <c r="H272">
-        <v>1862003386508.094</v>
+        <v>1861861146166.915</v>
       </c>
       <c r="I272">
-        <v>60.91785668585925</v>
+        <v>60.92251061869241</v>
       </c>
       <c r="J272">
-        <v>15.14719215075696</v>
+        <v>15.14834934864138</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -9135,16 +9135,16 @@
         <v>153802284217.0401</v>
       </c>
       <c r="G273">
-        <v>455167019079.8897</v>
+        <v>455025639860.4103</v>
       </c>
       <c r="H273">
-        <v>1887892114128.918</v>
+        <v>1887750734909.438</v>
       </c>
       <c r="I273">
-        <v>60.83344976225838</v>
+        <v>60.83800575870779</v>
       </c>
       <c r="J273">
-        <v>15.0567499121067</v>
+        <v>15.0578775565097</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9167,16 +9167,16 @@
         <v>154497065381.8467</v>
       </c>
       <c r="G274">
-        <v>466427282867.2052</v>
+        <v>466313133328.0269</v>
       </c>
       <c r="H274">
-        <v>1958391367673.562</v>
+        <v>1958277218134.384</v>
       </c>
       <c r="I274">
-        <v>61.16409328023931</v>
+        <v>61.16765858396522</v>
       </c>
       <c r="J274">
-        <v>15.01904914132429</v>
+        <v>15.01992461366421</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9199,16 +9199,16 @@
         <v>154372509312.0048</v>
       </c>
       <c r="G275">
-        <v>463208707239.7946</v>
+        <v>463164547277.8062</v>
       </c>
       <c r="H275">
-        <v>1939377369308.461</v>
+        <v>1939333209346.473</v>
       </c>
       <c r="I275">
-        <v>61.11528178486905</v>
+        <v>61.11667342221509</v>
       </c>
       <c r="J275">
-        <v>15.00031518092598</v>
+        <v>15.00065674850447</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -9231,16 +9231,16 @@
         <v>154536952703.0511</v>
       </c>
       <c r="G276">
-        <v>451335314928.9719</v>
+        <v>451339843757.076</v>
       </c>
       <c r="H276">
-        <v>1900270601586.647</v>
+        <v>1900275130414.751</v>
       </c>
       <c r="I276">
-        <v>61.55320805923268</v>
+        <v>61.55306136263381</v>
       </c>
       <c r="J276">
-        <v>14.69568435892474</v>
+        <v>14.6956493354551</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -9263,16 +9263,16 @@
         <v>154033909941.5446</v>
       </c>
       <c r="G277">
-        <v>444562105228.3997</v>
+        <v>444556360732.1424</v>
       </c>
       <c r="H277">
-        <v>1871400813128.553</v>
+        <v>1871395068632.296</v>
       </c>
       <c r="I277">
-        <v>61.47796807283433</v>
+        <v>61.47815678764042</v>
       </c>
       <c r="J277">
-        <v>14.76645257133575</v>
+        <v>14.76649789892742</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -9295,16 +9295,16 @@
         <v>154347733902.6709</v>
       </c>
       <c r="G278">
-        <v>451604157633.1561</v>
+        <v>451669952413.3878</v>
       </c>
       <c r="H278">
-        <v>1925127246554.164</v>
+        <v>1925193041334.395</v>
       </c>
       <c r="I278">
-        <v>61.90855978465211</v>
+        <v>61.90644401755861</v>
       </c>
       <c r="J278">
-        <v>14.63303462467879</v>
+        <v>14.63253453077829</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -9327,16 +9327,16 @@
         <v>154497065932.3331</v>
       </c>
       <c r="G279">
-        <v>459290424109.1373</v>
+        <v>459343983125.7267</v>
       </c>
       <c r="H279">
-        <v>1955002400036.432</v>
+        <v>1955055959053.021</v>
       </c>
       <c r="I279">
-        <v>61.98651487723716</v>
+        <v>61.98481674846327</v>
       </c>
       <c r="J279">
-        <v>14.52039764110152</v>
+        <v>14.51999985288756</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -9359,16 +9359,16 @@
         <v>154495443327.1748</v>
       </c>
       <c r="G280">
-        <v>474841520412.4446</v>
+        <v>474881506730.8684</v>
       </c>
       <c r="H280">
-        <v>2015393717081.453</v>
+        <v>2015433703399.877</v>
       </c>
       <c r="I280">
-        <v>61.71854063695194</v>
+        <v>61.71731613762238</v>
       </c>
       <c r="J280">
-        <v>14.72072696679571</v>
+        <v>14.72043490674187</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -9391,16 +9391,16 @@
         <v>154896946574.1826</v>
       </c>
       <c r="G281">
-        <v>482264835312.9278</v>
+        <v>482259598809.0951</v>
       </c>
       <c r="H281">
-        <v>2036327681192.218</v>
+        <v>2036322444688.385</v>
       </c>
       <c r="I281">
-        <v>61.21195486864647</v>
+        <v>61.21211227821443</v>
       </c>
       <c r="J281">
-        <v>15.10497880724532</v>
+        <v>15.10501765044504</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -9423,16 +9423,16 @@
         <v>154974050677.3832</v>
       </c>
       <c r="G282">
-        <v>495309355406.0797</v>
+        <v>495273100187.9608</v>
       </c>
       <c r="H282">
-        <v>2064566825632.49</v>
+        <v>2064530570414.371</v>
       </c>
       <c r="I282">
-        <v>60.74419107302469</v>
+        <v>60.74525780166913</v>
       </c>
       <c r="J282">
-        <v>15.26485115042868</v>
+        <v>15.26511921645587</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -9455,16 +9455,16 @@
         <v>155075647190.1076</v>
       </c>
       <c r="G283">
-        <v>487271314049.474</v>
+        <v>487305592409.5542</v>
       </c>
       <c r="H283">
-        <v>2054011522659.511</v>
+        <v>2054045801019.591</v>
       </c>
       <c r="I283">
-        <v>61.1437313045874</v>
+        <v>61.14271092478999</v>
       </c>
       <c r="J283">
-        <v>15.13335825046239</v>
+        <v>15.13310570171052</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -9487,16 +9487,16 @@
         <v>155094573117.6794</v>
       </c>
       <c r="G284">
-        <v>495809288935.7353</v>
+        <v>495622941570.9351</v>
       </c>
       <c r="H284">
-        <v>2065570506005.894</v>
+        <v>2065384158641.094</v>
       </c>
       <c r="I284">
-        <v>60.5689844819789</v>
+        <v>60.57444926227154</v>
       </c>
       <c r="J284">
-        <v>15.42751200680662</v>
+        <v>15.42890393972906</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -9519,16 +9519,16 @@
         <v>155244874083.6087</v>
       </c>
       <c r="G285">
-        <v>506981460992.8804</v>
+        <v>506816809278.0093</v>
       </c>
       <c r="H285">
-        <v>2097689742699.977</v>
+        <v>2097525090985.106</v>
       </c>
       <c r="I285">
-        <v>60.59922115652844</v>
+        <v>60.60397807968809</v>
       </c>
       <c r="J285">
-        <v>15.23221613026809</v>
+        <v>15.23341183015169</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -9551,16 +9551,16 @@
         <v>155417618747.6252</v>
       </c>
       <c r="G286">
-        <v>496924607618.4191</v>
+        <v>496772646612.2671</v>
       </c>
       <c r="H286">
-        <v>2052520897813.357</v>
+        <v>2052368936807.205</v>
       </c>
       <c r="I286">
-        <v>60.69225683979271</v>
+        <v>60.69675060124544</v>
       </c>
       <c r="J286">
-        <v>15.09729014373299</v>
+        <v>15.09840797365103</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -9583,16 +9583,16 @@
         <v>155622570294.3165</v>
       </c>
       <c r="G287">
-        <v>515648908996.4973</v>
+        <v>515477764764.2413</v>
       </c>
       <c r="H287">
-        <v>2119629249566.62</v>
+        <v>2119458105334.364</v>
       </c>
       <c r="I287">
-        <v>60.72530621550997</v>
+        <v>60.73020972640486</v>
       </c>
       <c r="J287">
-        <v>14.94737762285813</v>
+        <v>14.94858460942751</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -9615,16 +9615,16 @@
         <v>155732692571.0874</v>
       </c>
       <c r="G288">
-        <v>527466036093.3858</v>
+        <v>527303251618.3646</v>
       </c>
       <c r="H288">
-        <v>2151855912205.13</v>
+        <v>2151693127730.109</v>
       </c>
       <c r="I288">
-        <v>60.39940773033388</v>
+        <v>60.40397719507412</v>
       </c>
       <c r="J288">
-        <v>15.0884475158447</v>
+        <v>15.08958901923851</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -9647,16 +9647,16 @@
         <v>155979992773.0377</v>
       </c>
       <c r="G289">
-        <v>524731001388.5811</v>
+        <v>524655248580.9796</v>
       </c>
       <c r="H289">
-        <v>2150710628255.844</v>
+        <v>2150634875448.242</v>
       </c>
       <c r="I289">
-        <v>60.59474810773214</v>
+        <v>60.59688246458996</v>
       </c>
       <c r="J289">
-        <v>15.00722295733295</v>
+        <v>15.00775156369301</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -9679,16 +9679,16 @@
         <v>155750841978.381</v>
       </c>
       <c r="G290">
-        <v>524909773148.8943</v>
+        <v>524764766175.6407</v>
       </c>
       <c r="H290">
-        <v>2142881500381.169</v>
+        <v>2142736493407.916</v>
       </c>
       <c r="I290">
-        <v>60.56450694289357</v>
+        <v>60.56860556905009</v>
       </c>
       <c r="J290">
-        <v>14.93998208015669</v>
+        <v>14.94099312448649</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -9711,16 +9711,16 @@
         <v>155313891579.6987</v>
       </c>
       <c r="G291">
-        <v>503223847083.8107</v>
+        <v>502985005931.751</v>
       </c>
       <c r="H291">
-        <v>2065379164725.351</v>
+        <v>2065140323573.291</v>
       </c>
       <c r="I291">
-        <v>60.50113338721206</v>
+        <v>60.5081305680981</v>
       </c>
       <c r="J291">
-        <v>15.13414677449481</v>
+        <v>15.13589709480467</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -9743,16 +9743,16 @@
         <v>155074428343.0672</v>
       </c>
       <c r="G292">
-        <v>480193290218.2228</v>
+        <v>480157435500.9785</v>
       </c>
       <c r="H292">
-        <v>1978364311335.489</v>
+        <v>1978328456618.245</v>
       </c>
       <c r="I292">
-        <v>60.80412500999456</v>
+        <v>60.80522700835191</v>
       </c>
       <c r="J292">
-        <v>14.92363718896719</v>
+        <v>14.92390766113771</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -9775,16 +9775,16 @@
         <v>155194830742.077</v>
       </c>
       <c r="G293">
-        <v>467201958405.0046</v>
+        <v>467228010416.9037</v>
       </c>
       <c r="H293">
-        <v>1950475648897.684</v>
+        <v>1950501700909.583</v>
       </c>
       <c r="I293">
-        <v>61.45434828529702</v>
+        <v>61.45352746601138</v>
       </c>
       <c r="J293">
-        <v>14.59241965722792</v>
+        <v>14.59222475255782</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -9807,16 +9807,16 @@
         <v>155153921344.6022</v>
       </c>
       <c r="G294">
-        <v>462838897827.5505</v>
+        <v>462922546340.7508</v>
       </c>
       <c r="H294">
-        <v>1945932095735.431</v>
+        <v>1946015744248.632</v>
       </c>
       <c r="I294">
-        <v>61.69234991942566</v>
+        <v>61.68969810462824</v>
       </c>
       <c r="J294">
-        <v>14.52270409803591</v>
+        <v>14.52207984686578</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -9839,16 +9839,16 @@
         <v>155206124277.1077</v>
       </c>
       <c r="G295">
-        <v>478983351643.2174</v>
+        <v>479079434726.1412</v>
       </c>
       <c r="H295">
-        <v>1996575095855.703</v>
+        <v>1996671178938.626</v>
       </c>
       <c r="I295">
-        <v>61.4383849281318</v>
+        <v>61.43542841255927</v>
       </c>
       <c r="J295">
-        <v>14.57136533683722</v>
+        <v>14.57066413890401</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -9871,16 +9871,16 @@
         <v>155225756361.1385</v>
       </c>
       <c r="G296">
-        <v>477247114717.581</v>
+        <v>477163096975.1921</v>
       </c>
       <c r="H296">
-        <v>1994715341411.358</v>
+        <v>1994631323668.969</v>
       </c>
       <c r="I296">
-        <v>61.50060233272028</v>
+        <v>61.50319285744644</v>
       </c>
       <c r="J296">
-        <v>14.5738226837382</v>
+        <v>14.57443656143346</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -9903,16 +9903,16 @@
         <v>155249577176.7996</v>
       </c>
       <c r="G297">
-        <v>486593499523.1422</v>
+        <v>486478741875.1233</v>
       </c>
       <c r="H297">
-        <v>2021944066862.732</v>
+        <v>2021829309214.714</v>
       </c>
       <c r="I297">
-        <v>61.41783767512911</v>
+        <v>61.42132370956628</v>
       </c>
       <c r="J297">
-        <v>14.51653620306895</v>
+        <v>14.51736015172993</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -9935,16 +9935,16 @@
         <v>154811559617.1905</v>
       </c>
       <c r="G298">
-        <v>481536376350.9377</v>
+        <v>481459760715.3187</v>
       </c>
       <c r="H298">
-        <v>2004240878704.065</v>
+        <v>2004164263068.446</v>
       </c>
       <c r="I298">
-        <v>61.42433824701325</v>
+        <v>61.42668639022886</v>
       </c>
       <c r="J298">
-        <v>14.54978834288558</v>
+        <v>14.55034455541893</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -9967,16 +9967,16 @@
         <v>154848340500.8855</v>
       </c>
       <c r="G299">
-        <v>482174947705.3876</v>
+        <v>482093071238.1586</v>
       </c>
       <c r="H299">
-        <v>2006082683079.232</v>
+        <v>2006000806612.002</v>
       </c>
       <c r="I299">
-        <v>61.29942653733934</v>
+        <v>61.30192852062445</v>
       </c>
       <c r="J299">
-        <v>14.66492668835749</v>
+        <v>14.66552524862998</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -9999,16 +9999,16 @@
         <v>154437305674.5467</v>
       </c>
       <c r="G300">
-        <v>471255364020.9639</v>
+        <v>471148109942.8761</v>
       </c>
       <c r="H300">
-        <v>1954076405236.823</v>
+        <v>1953969151158.735</v>
       </c>
       <c r="I300">
-        <v>61.29424863175969</v>
+        <v>61.29761309538247</v>
       </c>
       <c r="J300">
-        <v>14.58922436049259</v>
+        <v>14.59002516832923</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -10031,16 +10031,16 @@
         <v>154508640131.7517</v>
       </c>
       <c r="G301">
-        <v>470541557656.3514</v>
+        <v>470425364641.519</v>
       </c>
       <c r="H301">
-        <v>1946785858906.305</v>
+        <v>1946669665891.473</v>
       </c>
       <c r="I301">
-        <v>61.11055645552666</v>
+        <v>61.11420402856746</v>
       </c>
       <c r="J301">
-        <v>14.7192680984333</v>
+        <v>14.72014666358817</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -10063,16 +10063,16 @@
         <v>154726727641.4207</v>
       </c>
       <c r="G302">
-        <v>486256558381.4487</v>
+        <v>486129845461.5545</v>
       </c>
       <c r="H302">
-        <v>2012776399905.76</v>
+        <v>2012649686985.865</v>
       </c>
       <c r="I302">
-        <v>61.27641285083033</v>
+        <v>61.28027070708976</v>
       </c>
       <c r="J302">
-        <v>14.56508854971195</v>
+        <v>14.5660055423265</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -10095,16 +10095,16 @@
         <v>154720881688.0495</v>
       </c>
       <c r="G303">
-        <v>493478645969.6179</v>
+        <v>493343960921.7193</v>
       </c>
       <c r="H303">
-        <v>2040763452252.055</v>
+        <v>2040628767204.156</v>
       </c>
       <c r="I303">
-        <v>61.20269702688515</v>
+        <v>61.20673651133871</v>
       </c>
       <c r="J303">
-        <v>14.61622282759152</v>
+        <v>14.61718752372012</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -10127,16 +10127,16 @@
         <v>154691097534.0533</v>
       </c>
       <c r="G304">
-        <v>490538237507.77</v>
+        <v>490405348558.5941</v>
       </c>
       <c r="H304">
-        <v>2028757845018.727</v>
+        <v>2028624956069.551</v>
       </c>
       <c r="I304">
-        <v>61.1823621039194</v>
+        <v>61.18636997130945</v>
       </c>
       <c r="J304">
-        <v>14.63839744546675</v>
+        <v>14.63935636162734</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -10159,16 +10159,16 @@
         <v>154540252149.129</v>
       </c>
       <c r="G305">
-        <v>513050677185.6176</v>
+        <v>512873920877.7744</v>
       </c>
       <c r="H305">
-        <v>2135587785999.96</v>
+        <v>2135411029692.117</v>
       </c>
       <c r="I305">
-        <v>61.1581327894814</v>
+        <v>61.1631950869015</v>
       </c>
       <c r="J305">
-        <v>14.81800452742178</v>
+        <v>14.81923107150788</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -10191,16 +10191,16 @@
         <v>154521530582.3826</v>
       </c>
       <c r="G306">
-        <v>507487638759.9847</v>
+        <v>507385251182.0258</v>
       </c>
       <c r="H306">
-        <v>2144478331521.83</v>
+        <v>2144375943943.871</v>
       </c>
       <c r="I306">
-        <v>61.72944518503034</v>
+        <v>61.73239258256999</v>
       </c>
       <c r="J306">
-        <v>14.60570209529465</v>
+        <v>14.60639947415965</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -10223,16 +10223,16 @@
         <v>154836734887.7436</v>
       </c>
       <c r="G307">
-        <v>508812712336.5693</v>
+        <v>508652612970.7235</v>
       </c>
       <c r="H307">
-        <v>2160552214463.887</v>
+        <v>2160392115098.041</v>
       </c>
       <c r="I307">
-        <v>61.8964165847166</v>
+        <v>61.90100351917821</v>
       </c>
       <c r="J307">
-        <v>14.55346002875721</v>
+        <v>14.5545385365453</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -10255,16 +10255,16 @@
         <v>154674469951.9497</v>
       </c>
       <c r="G308">
-        <v>501262069927.3854</v>
+        <v>501119132234.985</v>
       </c>
       <c r="H308">
-        <v>2144844431857.8</v>
+        <v>2144701494165.399</v>
       </c>
       <c r="I308">
-        <v>62.02723651484023</v>
+        <v>62.03137043747587</v>
       </c>
       <c r="J308">
-        <v>14.60220744472901</v>
+        <v>14.60318063649569</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -10287,16 +10287,16 @@
         <v>155030507870.558</v>
       </c>
       <c r="G309">
-        <v>513157296964.9965</v>
+        <v>512992417412.2465</v>
       </c>
       <c r="H309">
-        <v>2184944802302.089</v>
+        <v>2184779922749.339</v>
       </c>
       <c r="I309">
-        <v>61.94855805406967</v>
+        <v>61.95323314762904</v>
       </c>
       <c r="J309">
-        <v>14.56538882347493</v>
+        <v>14.56648803478214</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -10319,16 +10319,16 @@
         <v>155162035680.6166</v>
       </c>
       <c r="G310">
-        <v>515817604703.8688</v>
+        <v>515673873870.1201</v>
       </c>
       <c r="H310">
-        <v>2186735308281.187</v>
+        <v>2186591577447.438</v>
       </c>
       <c r="I310">
-        <v>61.82469101273398</v>
+        <v>61.82875492410964</v>
       </c>
       <c r="J310">
-        <v>14.58682972548876</v>
+        <v>14.58778855896266</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -10351,16 +10351,16 @@
         <v>155126418881.8231</v>
       </c>
       <c r="G311">
-        <v>527502991221.8751</v>
+        <v>527294633220.8693</v>
       </c>
       <c r="H311">
-        <v>2220012313585.037</v>
+        <v>2219803955584.031</v>
       </c>
       <c r="I311">
-        <v>61.36820395648314</v>
+        <v>61.37396417520404</v>
       </c>
       <c r="J311">
-        <v>14.87053183818347</v>
+        <v>14.87192763454644</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -10383,16 +10383,16 @@
         <v>154780816174.6346</v>
       </c>
       <c r="G312">
-        <v>519065868182.6605</v>
+        <v>518891792589.2988</v>
       </c>
       <c r="H312">
-        <v>2172264540053.727</v>
+        <v>2172090464460.365</v>
       </c>
       <c r="I312">
-        <v>61.33354543187877</v>
+        <v>61.33846082259969</v>
       </c>
       <c r="J312">
-        <v>14.77130466295258</v>
+        <v>14.77248846430248</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -10415,16 +10415,16 @@
         <v>154725216216.5317</v>
       </c>
       <c r="G313">
-        <v>515706818160.9489</v>
+        <v>515560422629.4901</v>
       </c>
       <c r="H313">
-        <v>2162420639886.973</v>
+        <v>2162274244355.514</v>
       </c>
       <c r="I313">
-        <v>61.57113162673071</v>
+        <v>61.57530026471017</v>
       </c>
       <c r="J313">
-        <v>14.58027903553968</v>
+        <v>14.58126618492825</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -10447,16 +10447,16 @@
         <v>154445042775.9271</v>
       </c>
       <c r="G314">
-        <v>509756424732.3336</v>
+        <v>509586489083.1747</v>
       </c>
       <c r="H314">
-        <v>2131800531589.267</v>
+        <v>2131630595940.108</v>
       </c>
       <c r="I314">
-        <v>61.839061301082</v>
+        <v>61.84399117075341</v>
       </c>
       <c r="J314">
-        <v>14.2489254885494</v>
+        <v>14.25006142664643</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -10479,16 +10479,16 @@
         <v>154650352173.8697</v>
       </c>
       <c r="G315">
-        <v>518076148107.1926</v>
+        <v>517902389900.8872</v>
       </c>
       <c r="H315">
-        <v>2170980377266.166</v>
+        <v>2170806619059.86</v>
       </c>
       <c r="I315">
-        <v>62.08660949335405</v>
+        <v>62.09157910133592</v>
       </c>
       <c r="J315">
-        <v>14.04969493701641</v>
+        <v>14.05081951889762</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -10511,16 +10511,16 @@
         <v>154880922852.6557</v>
       </c>
       <c r="G316">
-        <v>489612813160.3975</v>
+        <v>489567660853.1213</v>
       </c>
       <c r="H316">
-        <v>2094185922502.087</v>
+        <v>2094140770194.811</v>
       </c>
       <c r="I316">
-        <v>62.74395591258261</v>
+        <v>62.74530875113932</v>
       </c>
       <c r="J316">
-        <v>13.87641919836173</v>
+        <v>13.87671839140189</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -10543,16 +10543,16 @@
         <v>154830033526.7537</v>
       </c>
       <c r="G317">
-        <v>501918975771.2345</v>
+        <v>501839628074.0332</v>
       </c>
       <c r="H317">
-        <v>2125629526863.388</v>
+        <v>2125550179166.187</v>
       </c>
       <c r="I317">
-        <v>62.34351291651156</v>
+        <v>62.34584022651055</v>
       </c>
       <c r="J317">
-        <v>14.04376579654462</v>
+        <v>14.04429005632777</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -10575,16 +10575,16 @@
         <v>154829841678.9471</v>
       </c>
       <c r="G318">
-        <v>510492167476.3525</v>
+        <v>510453321427.1964</v>
       </c>
       <c r="H318">
-        <v>2155498962413.209</v>
+        <v>2155460116364.053</v>
       </c>
       <c r="I318">
-        <v>62.32202257226616</v>
+        <v>62.3231457497882</v>
       </c>
       <c r="J318">
-        <v>13.99472930847582</v>
+        <v>13.99498152373998</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -10607,16 +10607,16 @@
         <v>154979692263.0286</v>
       </c>
       <c r="G319">
-        <v>518548920492.7984</v>
+        <v>518540274789.6702</v>
       </c>
       <c r="H319">
-        <v>2208184371059.523</v>
+        <v>2208175725356.395</v>
       </c>
       <c r="I319">
-        <v>62.53440343089866</v>
+        <v>62.53464827277478</v>
       </c>
       <c r="J319">
-        <v>13.98255197876261</v>
+        <v>13.9826067248555</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -10639,16 +10639,16 @@
         <v>155152185367.2846</v>
       </c>
       <c r="G320">
-        <v>531284273831.9185</v>
+        <v>531266267417.9487</v>
       </c>
       <c r="H320">
-        <v>2288228599006.17</v>
+        <v>2288210592592.2</v>
       </c>
       <c r="I320">
-        <v>62.90063941664273</v>
+        <v>62.90113439510142</v>
       </c>
       <c r="J320">
-        <v>13.88121384475488</v>
+        <v>13.88132307896772</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -10671,16 +10671,16 @@
         <v>155424861420.5425</v>
       </c>
       <c r="G321">
-        <v>526848876622.162</v>
+        <v>526868661682.1608</v>
       </c>
       <c r="H321">
-        <v>2278059817125.349</v>
+        <v>2278079602185.347</v>
       </c>
       <c r="I321">
-        <v>62.82036767173494</v>
+        <v>62.81982207853339</v>
       </c>
       <c r="J321">
-        <v>14.05254529299199</v>
+        <v>14.05242324701454</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -10703,16 +10703,16 @@
         <v>155078740990.7009</v>
       </c>
       <c r="G322">
-        <v>507187744172.0006</v>
+        <v>507263343526.3086</v>
       </c>
       <c r="H322">
-        <v>2200287296913.625</v>
+        <v>2200362896267.934</v>
       </c>
       <c r="I322">
-        <v>63.18247213638782</v>
+        <v>63.18030133351471</v>
       </c>
       <c r="J322">
-        <v>13.76654970801222</v>
+        <v>13.766076721365</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -10735,16 +10735,16 @@
         <v>155350268780.3111</v>
       </c>
       <c r="G323">
-        <v>503892988173.315</v>
+        <v>504007810304.1603</v>
       </c>
       <c r="H323">
-        <v>2181213705038.673</v>
+        <v>2181328527169.518</v>
       </c>
       <c r="I323">
-        <v>63.02396246921399</v>
+        <v>63.02064497458863</v>
       </c>
       <c r="J323">
-        <v>13.87454192724629</v>
+        <v>13.87381159045898</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -10767,16 +10767,16 @@
         <v>155458439689.6093</v>
       </c>
       <c r="G324">
-        <v>498563259054.1376</v>
+        <v>498688000993.7327</v>
       </c>
       <c r="H324">
-        <v>2169052657973.515</v>
+        <v>2169177399913.11</v>
       </c>
       <c r="I324">
-        <v>63.18504307987778</v>
+        <v>63.18140952513603</v>
       </c>
       <c r="J324">
-        <v>13.8296569910771</v>
+        <v>13.8288616950183</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -10799,16 +10799,16 @@
         <v>155472623963.7891</v>
       </c>
       <c r="G325">
-        <v>488430666839.7213</v>
+        <v>488580915578.1808</v>
       </c>
       <c r="H325">
-        <v>2146813178846.551</v>
+        <v>2146963427585.011</v>
       </c>
       <c r="I325">
-        <v>63.45694379191221</v>
+        <v>63.45250294973076</v>
       </c>
       <c r="J325">
-        <v>13.79162764166976</v>
+        <v>13.79066247634471</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -10831,16 +10831,16 @@
         <v>155646869115.3425</v>
       </c>
       <c r="G326">
-        <v>478610698941.3785</v>
+        <v>478805164959.4166</v>
       </c>
       <c r="H326">
-        <v>2107220248695.802</v>
+        <v>2107414714713.84</v>
       </c>
       <c r="I326">
-        <v>63.60002051562608</v>
+        <v>63.59415169320093</v>
       </c>
       <c r="J326">
-        <v>13.68708560260719</v>
+        <v>13.68582259869196</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -10863,16 +10863,16 @@
         <v>155998606428.992</v>
       </c>
       <c r="G327">
-        <v>495087366890.2859</v>
+        <v>495268102290.5229</v>
       </c>
       <c r="H327">
-        <v>2157731697666.996</v>
+        <v>2157912433067.233</v>
       </c>
       <c r="I327">
-        <v>63.53726910695254</v>
+        <v>63.53194755933733</v>
       </c>
       <c r="J327">
-        <v>13.51792420435723</v>
+        <v>13.51679201409594</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -10895,16 +10895,16 @@
         <v>156940681183.8881</v>
       </c>
       <c r="G328">
-        <v>542792467590.3407</v>
+        <v>542927466825.0059</v>
       </c>
       <c r="H328">
-        <v>2366632751937.9</v>
+        <v>2366767751172.565</v>
       </c>
       <c r="I328">
-        <v>63.22876680446492</v>
+        <v>63.22516026760756</v>
       </c>
       <c r="J328">
-        <v>13.83601153320158</v>
+        <v>13.83522233410637</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -10927,16 +10927,16 @@
         <v>158234896347.5261</v>
       </c>
       <c r="G329">
-        <v>556330533643.9944</v>
+        <v>556320661395.1565</v>
       </c>
       <c r="H329">
-        <v>2407592323798.693</v>
+        <v>2407582451549.855</v>
       </c>
       <c r="I329">
-        <v>62.41176274216005</v>
+        <v>62.41201866047837</v>
       </c>
       <c r="J329">
-        <v>14.48089769105577</v>
+        <v>14.48095706971809</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -10959,16 +10959,16 @@
         <v>159290891375.7703</v>
       </c>
       <c r="G330">
-        <v>565740425474.2094</v>
+        <v>565716375144.203</v>
       </c>
       <c r="H330">
-        <v>2436272151266.585</v>
+        <v>2436248100936.579</v>
       </c>
       <c r="I330">
-        <v>62.14612530467879</v>
+        <v>62.14673880328824</v>
       </c>
       <c r="J330">
-        <v>14.63231362382562</v>
+        <v>14.63245807215634</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -10991,16 +10991,16 @@
         <v>160140951717.1224</v>
       </c>
       <c r="G331">
-        <v>589156559863.4347</v>
+        <v>589112666798.2683</v>
       </c>
       <c r="H331">
-        <v>2485569651289.963</v>
+        <v>2485525758224.797</v>
       </c>
       <c r="I331">
-        <v>61.13167153773082</v>
+        <v>61.13275109059148</v>
       </c>
       <c r="J331">
-        <v>15.16524858447642</v>
+        <v>15.16551639471423</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -11023,16 +11023,16 @@
         <v>160297202249.1385</v>
       </c>
       <c r="G332">
-        <v>622208358394.8416</v>
+        <v>622218215243.2357</v>
       </c>
       <c r="H332">
-        <v>2597198028893.272</v>
+        <v>2597207885741.667</v>
       </c>
       <c r="I332">
-        <v>61.25241321825445</v>
+        <v>61.25218075486399</v>
       </c>
       <c r="J332">
-        <v>14.79067816434684</v>
+        <v>14.79062203119204</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -11055,16 +11055,16 @@
         <v>160426739324.3469</v>
       </c>
       <c r="G333">
-        <v>671154485931.9919</v>
+        <v>671182076340.3314</v>
       </c>
       <c r="H333">
-        <v>2835237018672.252</v>
+        <v>2835264609080.591</v>
       </c>
       <c r="I333">
-        <v>61.95671442494331</v>
+        <v>61.9561115143561</v>
       </c>
       <c r="J333">
-        <v>14.37138507742933</v>
+        <v>14.37124522720815</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -11087,16 +11087,16 @@
         <v>160702567468.0403</v>
       </c>
       <c r="G334">
-        <v>662718985791.7793</v>
+        <v>662866667595.3938</v>
       </c>
       <c r="H334">
-        <v>2796065643687.647</v>
+        <v>2796213325491.262</v>
       </c>
       <c r="I334">
-        <v>62.27011073265871</v>
+        <v>62.26682194128487</v>
       </c>
       <c r="J334">
-        <v>14.02804996010174</v>
+        <v>14.02730906966237</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -11119,16 +11119,16 @@
         <v>162128178504.5046</v>
       </c>
       <c r="G335">
-        <v>658224239839.1084</v>
+        <v>658506254697.1891</v>
       </c>
       <c r="H335">
-        <v>2833282618831.117</v>
+        <v>2833564633689.198</v>
       </c>
       <c r="I335">
-        <v>63.20364060377814</v>
+        <v>63.19735016468842</v>
       </c>
       <c r="J335">
-        <v>13.56449980465517</v>
+        <v>13.56314977704618</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -11151,16 +11151,16 @@
         <v>163267463428.6608</v>
       </c>
       <c r="G336">
-        <v>641208194930.834</v>
+        <v>641534195064.1289</v>
       </c>
       <c r="H336">
-        <v>2735490143341.696</v>
+        <v>2735816143474.991</v>
       </c>
       <c r="I336">
-        <v>63.12570502183379</v>
+        <v>63.11818295632491</v>
       </c>
       <c r="J336">
-        <v>13.43395480762811</v>
+        <v>13.43235401619027</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -11183,16 +11183,16 @@
         <v>164040501835.0894</v>
       </c>
       <c r="G337">
-        <v>678315778601.0171</v>
+        <v>678625944848.0632</v>
       </c>
       <c r="H337">
-        <v>2850079742516.446</v>
+        <v>2850389908763.492</v>
       </c>
       <c r="I337">
-        <v>63.13073227674953</v>
+        <v>63.12386268243777</v>
       </c>
       <c r="J337">
-        <v>13.06938000494733</v>
+        <v>13.06795785546003</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -11215,16 +11215,16 @@
         <v>164580513846.8257</v>
       </c>
       <c r="G338">
-        <v>705744795630.1896</v>
+        <v>705994298442.2478</v>
       </c>
       <c r="H338">
-        <v>2873064590589.874</v>
+        <v>2873314093401.932</v>
       </c>
       <c r="I338">
-        <v>62.31728223234617</v>
+        <v>62.3118709418811</v>
       </c>
       <c r="J338">
-        <v>13.11853644219006</v>
+        <v>13.11739730054873</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -11247,16 +11247,16 @@
         <v>164757246850.8614</v>
       </c>
       <c r="G339">
-        <v>704002725469.0355</v>
+        <v>704348302467.1569</v>
       </c>
       <c r="H339">
-        <v>2851115449350.454</v>
+        <v>2851461026348.575</v>
       </c>
       <c r="I339">
-        <v>62.32252130073238</v>
+        <v>62.31496824998842</v>
       </c>
       <c r="J339">
-        <v>12.98529285216617</v>
+        <v>12.98371912610711</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -11279,16 +11279,16 @@
         <v>165001992296.3172</v>
       </c>
       <c r="G340">
-        <v>727539874366.0647</v>
+        <v>727788518114.4993</v>
       </c>
       <c r="H340">
-        <v>2904587026345.36</v>
+        <v>2904835670093.795</v>
       </c>
       <c r="I340">
-        <v>61.65825300286587</v>
+        <v>61.65297527259479</v>
       </c>
       <c r="J340">
-        <v>13.29378431717003</v>
+        <v>13.2926464158431</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -11311,16 +11311,16 @@
         <v>165601050542.9633</v>
       </c>
       <c r="G341">
-        <v>722528341752.5142</v>
+        <v>722876649179.2682</v>
       </c>
       <c r="H341">
-        <v>2922649555144.276</v>
+        <v>2922997862571.03</v>
       </c>
       <c r="I341">
-        <v>62.45002760614591</v>
+        <v>62.4425859967302</v>
       </c>
       <c r="J341">
-        <v>12.82828311431791</v>
+        <v>12.82675448292942</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -11343,16 +11343,16 @@
         <v>166596480219.5933</v>
       </c>
       <c r="G342">
-        <v>714020258594.6061</v>
+        <v>714375137687.8773</v>
       </c>
       <c r="H342">
-        <v>2946905283237.675</v>
+        <v>2947260162330.947</v>
       </c>
       <c r="I342">
-        <v>63.20592555250851</v>
+        <v>63.19831493779721</v>
       </c>
       <c r="J342">
-        <v>12.56457977536775</v>
+        <v>12.56306687646082</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -11375,16 +11375,16 @@
         <v>168461192341.523</v>
       </c>
       <c r="G343">
-        <v>755032035420.2776</v>
+        <v>755388144738.517</v>
       </c>
       <c r="H343">
-        <v>3108600636628.445</v>
+        <v>3108956745946.685</v>
       </c>
       <c r="I343">
-        <v>62.67400624015625</v>
+        <v>62.66682736973206</v>
       </c>
       <c r="J343">
-        <v>13.03750759910048</v>
+        <v>13.03601424350822</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -11407,16 +11407,16 @@
         <v>169740675234.5789</v>
       </c>
       <c r="G344">
-        <v>792867845367.3663</v>
+        <v>793144346973.3076</v>
       </c>
       <c r="H344">
-        <v>3151746700884.528</v>
+        <v>3152023202490.47</v>
       </c>
       <c r="I344">
-        <v>62.12716905226876</v>
+        <v>62.12171913616346</v>
       </c>
       <c r="J344">
-        <v>12.71637262115155</v>
+        <v>12.71525711621215</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -11439,16 +11439,16 @@
         <v>171180491902.8835</v>
       </c>
       <c r="G345">
-        <v>821128795839.2363</v>
+        <v>821220331865.8855</v>
       </c>
       <c r="H345">
-        <v>3160832925683.934</v>
+        <v>3160924461710.583</v>
       </c>
       <c r="I345">
-        <v>61.0995798597492</v>
+        <v>61.09781049991854</v>
       </c>
       <c r="J345">
-        <v>12.92217911501337</v>
+        <v>12.92180490647212</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -11471,16 +11471,16 @@
         <v>171625554117.9968</v>
       </c>
       <c r="G346">
-        <v>825156696746.9977</v>
+        <v>825240696566.2043</v>
       </c>
       <c r="H346">
-        <v>3170322032495.919</v>
+        <v>3170406032315.126</v>
       </c>
       <c r="I346">
-        <v>61.17506249674417</v>
+        <v>61.17344166517329</v>
       </c>
       <c r="J346">
-        <v>12.79740186841777</v>
+        <v>12.79706280161297</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -11503,16 +11503,16 @@
         <v>171177644670.6251</v>
       </c>
       <c r="G347">
-        <v>789605704026.6613</v>
+        <v>789743903310.8566</v>
       </c>
       <c r="H347">
-        <v>3039708970753.705</v>
+        <v>3039847170037.9</v>
       </c>
       <c r="I347">
-        <v>60.49226079093791</v>
+        <v>60.48951065691044</v>
       </c>
       <c r="J347">
-        <v>13.53138056342252</v>
+        <v>13.53076539199994</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -11535,16 +11535,16 @@
         <v>171449666118.533</v>
       </c>
       <c r="G348">
-        <v>779480317418.4995</v>
+        <v>779606022059.7274</v>
       </c>
       <c r="H348">
-        <v>3000177093206.771</v>
+        <v>3000302797848</v>
       </c>
       <c r="I348">
-        <v>60.66276949207594</v>
+        <v>60.66022788471539</v>
       </c>
       <c r="J348">
-        <v>13.35608695531652</v>
+        <v>13.35552737109051</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -11567,16 +11567,16 @@
         <v>172310206993.054</v>
       </c>
       <c r="G349">
-        <v>824642795104.8217</v>
+        <v>824745902109.9236</v>
       </c>
       <c r="H349">
-        <v>3165364189761.755</v>
+        <v>3165467296766.856</v>
       </c>
       <c r="I349">
-        <v>59.99589783892015</v>
+        <v>59.99394362591948</v>
       </c>
       <c r="J349">
-        <v>13.95203530027135</v>
+        <v>13.95158084838794</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -11599,16 +11599,16 @@
         <v>172475516550.6467</v>
       </c>
       <c r="G350">
-        <v>828585357058.0863</v>
+        <v>828645415584.9396</v>
       </c>
       <c r="H350">
-        <v>3152090481583.447</v>
+        <v>3152150540110.3</v>
       </c>
       <c r="I350">
-        <v>60.03310702407654</v>
+        <v>60.03196320181158</v>
       </c>
       <c r="J350">
-        <v>13.68004106290832</v>
+        <v>13.67978041447067</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -11631,16 +11631,16 @@
         <v>173365745922.9999</v>
       </c>
       <c r="G351">
-        <v>866593416169.0164</v>
+        <v>866628151342.2705</v>
       </c>
       <c r="H351">
-        <v>3226780797250.621</v>
+        <v>3226815532423.875</v>
       </c>
       <c r="I351">
-        <v>59.71357214695205</v>
+        <v>59.71292935803111</v>
       </c>
       <c r="J351">
-        <v>13.43014381579952</v>
+        <v>13.42999924652756</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -11663,16 +11663,16 @@
         <v>173995902883.6407</v>
       </c>
       <c r="G352">
-        <v>881787514049.6349</v>
+        <v>881640804038.0343</v>
       </c>
       <c r="H352">
-        <v>3238661849985.434</v>
+        <v>3238515139973.833</v>
       </c>
       <c r="I352">
-        <v>58.97567892981714</v>
+        <v>58.97835062414802</v>
       </c>
       <c r="J352">
-        <v>13.79741209067328</v>
+        <v>13.7980371359179</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -11695,16 +11695,16 @@
         <v>174119802020.6283</v>
       </c>
       <c r="G353">
-        <v>915818936640.7867</v>
+        <v>915701477129.5171</v>
       </c>
       <c r="H353">
-        <v>3288291867982.881</v>
+        <v>3288174408471.612</v>
       </c>
       <c r="I353">
-        <v>58.56561685501612</v>
+        <v>58.56770892431612</v>
       </c>
       <c r="J353">
-        <v>13.58348141822893</v>
+        <v>13.58396664464655</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -11727,16 +11727,16 @@
         <v>174137778490.7032</v>
       </c>
       <c r="G354">
-        <v>947921346744.6431</v>
+        <v>947689011479.7162</v>
       </c>
       <c r="H354">
-        <v>3283324241721.466</v>
+        <v>3283091906456.54</v>
       </c>
       <c r="I354">
-        <v>57.76392383595768</v>
+        <v>57.76801162787153</v>
       </c>
       <c r="J354">
-        <v>13.36529530422561</v>
+        <v>13.366241128928</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -11759,16 +11759,16 @@
         <v>174747619059.6599</v>
       </c>
       <c r="G355">
-        <v>982508987470.1445</v>
+        <v>982104553960.8049</v>
       </c>
       <c r="H355">
-        <v>3320122360989.877</v>
+        <v>3319717927480.537</v>
       </c>
       <c r="I355">
-        <v>57.25458163314844</v>
+        <v>57.26155682558392</v>
       </c>
       <c r="J355">
-        <v>13.15286482080652</v>
+        <v>13.15446720371783</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -11791,16 +11791,16 @@
         <v>175462214885.2384</v>
       </c>
       <c r="G356">
-        <v>974444024820.9846</v>
+        <v>974185473404.1727</v>
       </c>
       <c r="H356">
-        <v>3394210440049.812</v>
+        <v>3393951888633</v>
       </c>
       <c r="I356">
-        <v>57.66513971878351</v>
+        <v>57.66953265187865</v>
       </c>
       <c r="J356">
-        <v>13.62585587409188</v>
+        <v>13.6268938924425</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -11823,16 +11823,16 @@
         <v>176468944786.1832</v>
       </c>
       <c r="G357">
-        <v>968265500372.6042</v>
+        <v>967955184682.3983</v>
       </c>
       <c r="H357">
-        <v>3346075272994.655</v>
+        <v>3345764957304.449</v>
       </c>
       <c r="I357">
-        <v>57.40284945187715</v>
+        <v>57.40817349737191</v>
       </c>
       <c r="J357">
-        <v>13.65980092579858</v>
+        <v>13.66106785596446</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -11855,16 +11855,16 @@
         <v>177426441154.9615</v>
       </c>
       <c r="G358">
-        <v>1007126744858.279</v>
+        <v>1006774505966.956</v>
       </c>
       <c r="H358">
-        <v>3468939221065.913</v>
+        <v>3468586982174.59</v>
       </c>
       <c r="I358">
-        <v>57.03155477702167</v>
+        <v>57.03734639525938</v>
       </c>
       <c r="J358">
-        <v>13.93574442665779</v>
+        <v>13.93715961710618</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -11887,16 +11887,16 @@
         <v>178829613266.4295</v>
       </c>
       <c r="G359">
-        <v>1022254903886.867</v>
+        <v>1021994039423.455</v>
       </c>
       <c r="H359">
-        <v>3478883172063.306</v>
+        <v>3478622307599.894</v>
       </c>
       <c r="I359">
-        <v>56.76359319791552</v>
+        <v>56.7678499418134</v>
       </c>
       <c r="J359">
-        <v>13.85183556681148</v>
+        <v>13.85287432622049</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -11919,16 +11919,16 @@
         <v>179326462875.0008</v>
       </c>
       <c r="G360">
-        <v>1027175379697.982</v>
+        <v>1026940760636.095</v>
       </c>
       <c r="H360">
-        <v>3514057245484.315</v>
+        <v>3513822626422.427</v>
       </c>
       <c r="I360">
-        <v>57.00644092275559</v>
+        <v>57.0102472610694</v>
       </c>
       <c r="J360">
-        <v>13.76309104722188</v>
+        <v>13.76401001321803</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -11951,16 +11951,16 @@
         <v>178756577369.3546</v>
       </c>
       <c r="G361">
-        <v>905052449347.239</v>
+        <v>905048575142.6718</v>
       </c>
       <c r="H361">
-        <v>3277671411424.855</v>
+        <v>3277667537220.289</v>
       </c>
       <c r="I361">
-        <v>58.76268388112599</v>
+        <v>58.7627533386459</v>
       </c>
       <c r="J361">
-        <v>13.62465042601256</v>
+        <v>13.62466653035576</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -11983,16 +11983,16 @@
         <v>179229737963.5123</v>
       </c>
       <c r="G362">
-        <v>900830887810.0464</v>
+        <v>900842618407.0237</v>
       </c>
       <c r="H362">
-        <v>3250696293352.316</v>
+        <v>3250708023949.294</v>
       </c>
       <c r="I362">
-        <v>58.85249208425319</v>
+        <v>58.85227970748459</v>
       </c>
       <c r="J362">
-        <v>13.43557156376437</v>
+        <v>13.43552307978056</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -12015,16 +12015,16 @@
         <v>180109436364.7009</v>
       </c>
       <c r="G363">
-        <v>954023610178.9337</v>
+        <v>953951094332.0851</v>
       </c>
       <c r="H363">
-        <v>3416845980723.991</v>
+        <v>3416773464877.142</v>
       </c>
       <c r="I363">
-        <v>58.58462592787676</v>
+        <v>58.58586929791728</v>
       </c>
       <c r="J363">
-        <v>13.4941971867435</v>
+        <v>13.49448358066063</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -12047,16 +12047,16 @@
         <v>181225512548.7903</v>
       </c>
       <c r="G364">
-        <v>959075005463.9666</v>
+        <v>959020439751.8575</v>
       </c>
       <c r="H364">
-        <v>3405124251232.663</v>
+        <v>3405069685520.554</v>
       </c>
       <c r="I364">
-        <v>58.12316978585573</v>
+        <v>58.12410120061146</v>
       </c>
       <c r="J364">
-        <v>13.71119117419502</v>
+        <v>13.71141089390104</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -12079,16 +12079,16 @@
         <v>182107273483.0408</v>
       </c>
       <c r="G365">
-        <v>970526493443.2388</v>
+        <v>970487189405.4767</v>
       </c>
       <c r="H365">
-        <v>3446402422350.611</v>
+        <v>3446363118312.849</v>
       </c>
       <c r="I365">
-        <v>58.18838822275586</v>
+        <v>58.18905183205341</v>
       </c>
       <c r="J365">
-        <v>13.65104390074834</v>
+        <v>13.65119958403723</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -12111,16 +12111,48 @@
         <v>182072029399.7234</v>
       </c>
       <c r="G366">
-        <v>950639538794.3049</v>
+        <v>950691489617.8906</v>
       </c>
       <c r="H366">
-        <v>3423999200156.814</v>
+        <v>3424051150980.4</v>
       </c>
       <c r="I366">
-        <v>58.6345460187876</v>
+        <v>58.63365639628433</v>
       </c>
       <c r="J366">
-        <v>13.60144227376905</v>
+        <v>13.60123590823977</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B367">
+        <v>2075487816560.192</v>
+      </c>
+      <c r="C367">
+        <v>477323245356.1555</v>
+      </c>
+      <c r="D367">
+        <v>140272958832.9677</v>
+      </c>
+      <c r="E367">
+        <v>42123501126.10943</v>
+      </c>
+      <c r="F367">
+        <v>182396459959.0771</v>
+      </c>
+      <c r="G367">
+        <v>969856826397.8995</v>
+      </c>
+      <c r="H367">
+        <v>3522667888314.247</v>
+      </c>
+      <c r="I367">
+        <v>58.91806671429946</v>
+      </c>
+      <c r="J367">
+        <v>13.55004957860435</v>
       </c>
     </row>
   </sheetData>
